--- a/readable_data.xlsx
+++ b/readable_data.xlsx
@@ -4510,7 +4510,7 @@
         <v>43</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="L8" t="s">
         <v>44</v>
@@ -9293,13 +9293,13 @@
         <v>77</v>
       </c>
       <c r="J135" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="K135" t="s">
         <v>51</v>
       </c>
       <c r="L135" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136" spans="1:12">

--- a/readable_data.xlsx
+++ b/readable_data.xlsx
@@ -5751,7 +5751,7 @@
         <v>51</v>
       </c>
       <c r="L41" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:12">

--- a/readable_data.xlsx
+++ b/readable_data.xlsx
@@ -5979,7 +5979,7 @@
         <v>28</v>
       </c>
       <c r="L47" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:12">

--- a/readable_data.xlsx
+++ b/readable_data.xlsx
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>0 1</t>
+  </si>
+  <si>
+    <t>1 2</t>
   </si>
   <si>
     <t>E-Cigarette Update: What to Do about Kids and Vaping?</t>
@@ -2590,9 +2593,6 @@
 twitter: https://twitter.com/cloudtheorem
 _________________________________________________________
 #vaping #tutorial #vape</t>
-  </si>
-  <si>
-    <t>1 3 4</t>
   </si>
   <si>
     <t>Harmony CBD E-Liquid Review</t>
@@ -4361,7 +4361,7 @@
         <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -4372,34 +4372,34 @@
         <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
         <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -4410,34 +4410,34 @@
         <v>155</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -4448,34 +4448,34 @@
         <v>171</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -4486,34 +4486,34 @@
         <v>185</v>
       </c>
       <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" t="s">
         <v>59</v>
       </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
-      </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -4524,28 +4524,28 @@
         <v>256</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9" t="s">
         <v>36</v>
@@ -4562,31 +4562,31 @@
         <v>365</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s">
         <v>19</v>
@@ -4600,31 +4600,31 @@
         <v>382</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s">
         <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L11" t="s">
         <v>19</v>
@@ -4638,22 +4638,22 @@
         <v>441</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I12" t="s">
         <v>26</v>
@@ -4662,10 +4662,10 @@
         <v>27</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -4676,22 +4676,22 @@
         <v>462</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I13" t="s">
         <v>26</v>
@@ -4700,10 +4700,10 @@
         <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -4714,22 +4714,22 @@
         <v>486</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I14" t="s">
         <v>26</v>
@@ -4738,10 +4738,10 @@
         <v>19</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -4752,22 +4752,22 @@
         <v>496</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I15" t="s">
         <v>26</v>
@@ -4776,10 +4776,10 @@
         <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -4790,22 +4790,22 @@
         <v>534</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s">
         <v>26</v>
@@ -4828,28 +4828,28 @@
         <v>539</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I17" t="s">
         <v>17</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K17" t="s">
         <v>36</v>
@@ -4866,22 +4866,22 @@
         <v>545</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I18" t="s">
         <v>26</v>
@@ -4890,10 +4890,10 @@
         <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -4904,22 +4904,22 @@
         <v>619</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I19" t="s">
         <v>26</v>
@@ -4942,22 +4942,22 @@
         <v>641</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
         <v>26</v>
@@ -4980,34 +4980,34 @@
         <v>670</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -5018,22 +5018,22 @@
         <v>686</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I22" t="s"/>
       <c r="J22" t="s"/>
@@ -5048,22 +5048,22 @@
         <v>736</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I23" t="s"/>
       <c r="J23" t="s"/>
@@ -5078,28 +5078,28 @@
         <v>773</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I24" t="s">
         <v>26</v>
       </c>
       <c r="J24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K24" t="s">
         <v>28</v>
@@ -5116,28 +5116,28 @@
         <v>786</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I25" t="s">
         <v>26</v>
       </c>
       <c r="J25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s">
         <v>19</v>
@@ -5154,31 +5154,31 @@
         <v>792</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I26" t="s">
         <v>26</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L26" t="s">
         <v>19</v>
@@ -5192,34 +5192,34 @@
         <v>819</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I27" t="s">
         <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -5230,28 +5230,28 @@
         <v>825</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I28" t="s">
         <v>17</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28" t="s">
         <v>36</v>
@@ -5268,34 +5268,34 @@
         <v>830</v>
       </c>
       <c r="C29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I29" t="s">
         <v>26</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -5306,28 +5306,28 @@
         <v>832</v>
       </c>
       <c r="C30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F30" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I30" t="s">
         <v>26</v>
       </c>
       <c r="J30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K30" t="s">
         <v>19</v>
@@ -5344,34 +5344,34 @@
         <v>884</v>
       </c>
       <c r="C31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I31" t="s">
         <v>26</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -5382,22 +5382,22 @@
         <v>943</v>
       </c>
       <c r="C32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D32" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F32" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H32" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I32" t="s">
         <v>26</v>
@@ -5406,10 +5406,10 @@
         <v>26</v>
       </c>
       <c r="K32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -5420,34 +5420,34 @@
         <v>959</v>
       </c>
       <c r="C33" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G33" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I33" t="s">
         <v>17</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -5458,25 +5458,25 @@
         <v>1140</v>
       </c>
       <c r="C34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G34" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s">
         <v>19</v>
@@ -5496,34 +5496,34 @@
         <v>1164</v>
       </c>
       <c r="C35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G35" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H35" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -5534,34 +5534,34 @@
         <v>1183</v>
       </c>
       <c r="C36" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D36" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G36" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H36" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -5572,34 +5572,34 @@
         <v>1194</v>
       </c>
       <c r="C37" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D37" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E37" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F37" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G37" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J37" t="s">
         <v>27</v>
       </c>
       <c r="K37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -5610,34 +5610,34 @@
         <v>1270</v>
       </c>
       <c r="C38" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D38" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F38" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G38" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H38" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I38" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -5648,34 +5648,34 @@
         <v>1275</v>
       </c>
       <c r="C39" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39" t="s">
+        <v>238</v>
+      </c>
+      <c r="E39" t="s">
+        <v>239</v>
+      </c>
+      <c r="F39" t="s">
+        <v>240</v>
+      </c>
+      <c r="G39" t="s">
+        <v>241</v>
+      </c>
+      <c r="H39" t="s">
+        <v>242</v>
+      </c>
+      <c r="I39" t="s">
         <v>236</v>
       </c>
-      <c r="D39" t="s">
-        <v>237</v>
-      </c>
-      <c r="E39" t="s">
-        <v>238</v>
-      </c>
-      <c r="F39" t="s">
-        <v>239</v>
-      </c>
-      <c r="G39" t="s">
-        <v>240</v>
-      </c>
-      <c r="H39" t="s">
-        <v>241</v>
-      </c>
-      <c r="I39" t="s">
-        <v>235</v>
-      </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -5686,28 +5686,28 @@
         <v>1279</v>
       </c>
       <c r="C40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D40" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E40" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F40" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G40" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I40" t="s">
         <v>26</v>
       </c>
       <c r="J40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K40" t="s">
         <v>36</v>
@@ -5724,34 +5724,34 @@
         <v>1328</v>
       </c>
       <c r="C41" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D41" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E41" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H41" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I41" t="s">
         <v>26</v>
       </c>
       <c r="J41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -5762,31 +5762,31 @@
         <v>1333</v>
       </c>
       <c r="C42" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D42" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E42" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F42" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H42" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I42" t="s">
         <v>26</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L42" t="s">
         <v>19</v>
@@ -5800,22 +5800,22 @@
         <v>1363</v>
       </c>
       <c r="C43" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D43" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E43" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F43" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G43" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H43" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I43" t="s">
         <v>26</v>
@@ -5824,7 +5824,7 @@
         <v>28</v>
       </c>
       <c r="K43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L43" t="s">
         <v>36</v>
@@ -5838,22 +5838,22 @@
         <v>1366</v>
       </c>
       <c r="C44" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D44" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E44" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F44" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G44" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H44" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I44" t="s">
         <v>26</v>
@@ -5862,10 +5862,10 @@
         <v>28</v>
       </c>
       <c r="K44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -5876,22 +5876,22 @@
         <v>1389</v>
       </c>
       <c r="C45" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D45" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E45" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H45" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I45" t="s">
         <v>26</v>
@@ -5914,34 +5914,34 @@
         <v>1405</v>
       </c>
       <c r="C46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D46" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E46" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F46" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G46" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H46" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s">
         <v>28</v>
       </c>
       <c r="K46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -5952,25 +5952,25 @@
         <v>1431</v>
       </c>
       <c r="C47" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D47" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F47" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G47" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H47" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J47" t="s">
         <v>28</v>
@@ -5979,7 +5979,7 @@
         <v>28</v>
       </c>
       <c r="L47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -5990,25 +5990,25 @@
         <v>1462</v>
       </c>
       <c r="C48" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D48" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E48" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F48" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G48" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H48" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J48" t="s">
         <v>28</v>
@@ -6028,22 +6028,22 @@
         <v>1520</v>
       </c>
       <c r="C49" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D49" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E49" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F49" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G49" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H49" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I49" t="s">
         <v>26</v>
@@ -6052,10 +6052,10 @@
         <v>28</v>
       </c>
       <c r="K49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -6066,22 +6066,22 @@
         <v>1525</v>
       </c>
       <c r="C50" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D50" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E50" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F50" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G50" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H50" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I50" t="s">
         <v>26</v>
@@ -6090,7 +6090,7 @@
         <v>26</v>
       </c>
       <c r="K50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L50" t="s">
         <v>19</v>
@@ -6104,22 +6104,22 @@
         <v>1544</v>
       </c>
       <c r="C51" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D51" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E51" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F51" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G51" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H51" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I51" t="s">
         <v>26</v>
@@ -6128,10 +6128,10 @@
         <v>26</v>
       </c>
       <c r="K51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -6142,34 +6142,34 @@
         <v>1574</v>
       </c>
       <c r="C52" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D52" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E52" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F52" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G52" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H52" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -6180,34 +6180,34 @@
         <v>1580</v>
       </c>
       <c r="C53" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D53" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E53" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F53" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G53" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H53" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I53" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -6218,34 +6218,34 @@
         <v>1610</v>
       </c>
       <c r="C54" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D54" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E54" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F54" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G54" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H54" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I54" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J54" t="s">
         <v>28</v>
       </c>
       <c r="K54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -6256,34 +6256,34 @@
         <v>1618</v>
       </c>
       <c r="C55" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D55" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E55" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F55" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G55" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H55" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I55" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -6294,34 +6294,34 @@
         <v>1624</v>
       </c>
       <c r="C56" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D56" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E56" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F56" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G56" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H56" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I56" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -6332,34 +6332,34 @@
         <v>1726</v>
       </c>
       <c r="C57" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D57" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E57" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F57" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H57" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I57" t="s">
         <v>19</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -6370,34 +6370,34 @@
         <v>1730</v>
       </c>
       <c r="C58" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D58" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E58" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F58" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G58" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H58" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I58" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -6408,34 +6408,34 @@
         <v>1769</v>
       </c>
       <c r="C59" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D59" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E59" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F59" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G59" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H59" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I59" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -6446,34 +6446,34 @@
         <v>1776</v>
       </c>
       <c r="C60" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D60" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E60" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F60" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G60" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H60" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I60" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K60" t="s">
         <v>28</v>
       </c>
       <c r="L60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -6484,34 +6484,34 @@
         <v>1779</v>
       </c>
       <c r="C61" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D61" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E61" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F61" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G61" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H61" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I61" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K61" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="L61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -6522,34 +6522,34 @@
         <v>1802</v>
       </c>
       <c r="C62" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D62" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E62" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H62" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I62" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J62" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -6560,34 +6560,34 @@
         <v>1806</v>
       </c>
       <c r="C63" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D63" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E63" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F63" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G63" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H63" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I63" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K63" t="s">
         <v>28</v>
       </c>
       <c r="L63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -6598,34 +6598,34 @@
         <v>1825</v>
       </c>
       <c r="C64" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D64" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E64" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F64" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G64" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H64" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I64" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -6636,34 +6636,34 @@
         <v>1828</v>
       </c>
       <c r="C65" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D65" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E65" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F65" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G65" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H65" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I65" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K65" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -6674,34 +6674,34 @@
         <v>1836</v>
       </c>
       <c r="C66" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D66" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E66" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F66" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G66" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H66" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I66" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K66" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -6712,28 +6712,28 @@
         <v>1856</v>
       </c>
       <c r="C67" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D67" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E67" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F67" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G67" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H67" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I67" t="s">
         <v>17</v>
       </c>
       <c r="J67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K67" t="s">
         <v>19</v>
@@ -6750,28 +6750,28 @@
         <v>1868</v>
       </c>
       <c r="C68" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D68" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E68" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F68" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G68" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H68" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I68" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K68" t="s">
         <v>36</v>
@@ -6788,22 +6788,22 @@
         <v>1880</v>
       </c>
       <c r="C69" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D69" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E69" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F69" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G69" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H69" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I69" t="s"/>
       <c r="J69" t="s"/>
@@ -6818,34 +6818,34 @@
         <v>1895</v>
       </c>
       <c r="C70" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D70" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E70" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F70" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G70" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H70" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I70" t="s">
         <v>19</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -6856,34 +6856,34 @@
         <v>1942</v>
       </c>
       <c r="C71" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D71" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E71" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F71" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G71" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H71" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I71" t="s">
         <v>26</v>
       </c>
       <c r="J71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -6894,34 +6894,34 @@
         <v>2022</v>
       </c>
       <c r="C72" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D72" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E72" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F72" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G72" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H72" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -6932,34 +6932,34 @@
         <v>2070</v>
       </c>
       <c r="C73" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D73" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E73" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F73" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G73" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H73" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J73" t="s">
         <v>28</v>
       </c>
       <c r="K73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -6970,22 +6970,22 @@
         <v>2080</v>
       </c>
       <c r="C74" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D74" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E74" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F74" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G74" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H74" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I74" t="s">
         <v>17</v>
@@ -6994,7 +6994,7 @@
         <v>26</v>
       </c>
       <c r="K74" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L74" t="s">
         <v>36</v>
@@ -7008,22 +7008,22 @@
         <v>2103</v>
       </c>
       <c r="C75" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D75" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E75" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F75" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G75" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H75" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I75" t="s">
         <v>26</v>
@@ -7046,34 +7046,34 @@
         <v>2148</v>
       </c>
       <c r="C76" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D76" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E76" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F76" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G76" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H76" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I76" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -7084,34 +7084,34 @@
         <v>2191</v>
       </c>
       <c r="C77" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D77" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E77" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F77" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G77" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H77" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I77" t="s">
         <v>26</v>
       </c>
       <c r="J77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -7122,34 +7122,34 @@
         <v>2263</v>
       </c>
       <c r="C78" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D78" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E78" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F78" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G78" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H78" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I78" t="s">
         <v>19</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -7160,31 +7160,31 @@
         <v>2267</v>
       </c>
       <c r="C79" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D79" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E79" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F79" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G79" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H79" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I79" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L79" t="s">
         <v>36</v>
@@ -7198,22 +7198,22 @@
         <v>2280</v>
       </c>
       <c r="C80" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D80" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E80" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F80" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G80" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H80" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I80" t="s">
         <v>26</v>
@@ -7222,10 +7222,10 @@
         <v>19</v>
       </c>
       <c r="K80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -7236,28 +7236,28 @@
         <v>2298</v>
       </c>
       <c r="C81" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D81" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E81" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F81" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G81" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H81" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I81" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K81" t="s">
         <v>19</v>
@@ -7274,22 +7274,22 @@
         <v>2329</v>
       </c>
       <c r="C82" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D82" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E82" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F82" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G82" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H82" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I82" t="s">
         <v>17</v>
@@ -7312,34 +7312,34 @@
         <v>2387</v>
       </c>
       <c r="C83" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D83" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E83" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F83" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G83" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H83" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I83" t="s">
         <v>19</v>
       </c>
       <c r="J83" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -7350,34 +7350,34 @@
         <v>2415</v>
       </c>
       <c r="C84" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D84" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E84" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F84" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G84" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H84" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I84" t="s">
         <v>17</v>
       </c>
       <c r="J84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K84" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -7388,28 +7388,28 @@
         <v>2427</v>
       </c>
       <c r="C85" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D85" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E85" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F85" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G85" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H85" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I85" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K85" t="s">
         <v>19</v>
@@ -7426,34 +7426,34 @@
         <v>2465</v>
       </c>
       <c r="C86" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D86" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E86" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F86" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G86" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H86" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K86" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -7464,34 +7464,34 @@
         <v>2470</v>
       </c>
       <c r="C87" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D87" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E87" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F87" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G87" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H87" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="I87" t="s">
         <v>19</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K87" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -7502,34 +7502,34 @@
         <v>2492</v>
       </c>
       <c r="C88" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D88" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E88" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F88" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G88" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H88" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="I88" t="s">
         <v>26</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K88" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -7540,34 +7540,34 @@
         <v>2502</v>
       </c>
       <c r="C89" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D89" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E89" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F89" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G89" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H89" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I89" t="s">
         <v>17</v>
       </c>
       <c r="J89" t="s">
-        <v>530</v>
+        <v>44</v>
       </c>
       <c r="K89" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L89" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -7596,7 +7596,7 @@
         <v>536</v>
       </c>
       <c r="I90" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J90" t="s">
         <v>19</v>
@@ -7640,10 +7640,10 @@
         <v>544</v>
       </c>
       <c r="K91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -7675,10 +7675,10 @@
         <v>26</v>
       </c>
       <c r="J92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K92" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L92" t="s">
         <v>19</v>
@@ -7713,13 +7713,13 @@
         <v>17</v>
       </c>
       <c r="J93" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K93" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -7748,16 +7748,16 @@
         <v>562</v>
       </c>
       <c r="I94" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J94" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -7777,10 +7777,10 @@
         <v>565</v>
       </c>
       <c r="F95" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G95" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H95" t="s">
         <v>566</v>
@@ -7789,7 +7789,7 @@
         <v>17</v>
       </c>
       <c r="J95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K95" t="s">
         <v>36</v>
@@ -7822,10 +7822,10 @@
         <v>572</v>
       </c>
       <c r="I96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K96" t="s">
         <v>28</v>
@@ -7863,13 +7863,13 @@
         <v>26</v>
       </c>
       <c r="J97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -7889,10 +7889,10 @@
         <v>581</v>
       </c>
       <c r="F98" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G98" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H98" t="s">
         <v>582</v>
@@ -7901,13 +7901,13 @@
         <v>26</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K98" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -7936,16 +7936,16 @@
         <v>588</v>
       </c>
       <c r="I99" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -7977,13 +7977,13 @@
         <v>17</v>
       </c>
       <c r="J100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K100" t="s">
         <v>26</v>
       </c>
       <c r="L100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -8018,10 +8018,10 @@
         <v>28</v>
       </c>
       <c r="K101" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -8041,10 +8041,10 @@
         <v>603</v>
       </c>
       <c r="F102" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G102" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H102" t="s">
         <v>604</v>
@@ -8091,13 +8091,13 @@
         <v>19</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -8129,13 +8129,13 @@
         <v>19</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -8167,13 +8167,13 @@
         <v>19</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K105" t="s">
         <v>28</v>
       </c>
       <c r="L105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -8208,10 +8208,10 @@
         <v>17</v>
       </c>
       <c r="K106" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -8243,13 +8243,13 @@
         <v>19</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K107" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -8269,10 +8269,10 @@
         <v>637</v>
       </c>
       <c r="F108" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G108" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H108" t="s">
         <v>638</v>
@@ -8281,13 +8281,13 @@
         <v>26</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K108" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L108" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -8337,10 +8337,10 @@
         <v>647</v>
       </c>
       <c r="F110" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G110" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H110" t="s">
         <v>648</v>
@@ -8349,13 +8349,13 @@
         <v>26</v>
       </c>
       <c r="J110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K110" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -8384,16 +8384,16 @@
         <v>654</v>
       </c>
       <c r="I111" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K111" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -8422,16 +8422,16 @@
         <v>660</v>
       </c>
       <c r="I112" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K112" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -8460,16 +8460,16 @@
         <v>666</v>
       </c>
       <c r="I113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J113" t="s">
         <v>26</v>
       </c>
       <c r="K113" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -8501,13 +8501,13 @@
         <v>17</v>
       </c>
       <c r="J114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K114" t="s">
         <v>28</v>
       </c>
       <c r="L114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -8542,7 +8542,7 @@
         <v>19</v>
       </c>
       <c r="K115" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L115" t="s">
         <v>19</v>
@@ -8574,16 +8574,16 @@
         <v>684</v>
       </c>
       <c r="I116" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K116" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -8612,16 +8612,16 @@
         <v>690</v>
       </c>
       <c r="I117" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -8650,16 +8650,16 @@
         <v>696</v>
       </c>
       <c r="I118" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K118" t="s">
         <v>28</v>
       </c>
       <c r="L118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -8688,16 +8688,16 @@
         <v>702</v>
       </c>
       <c r="I119" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K119" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -8726,7 +8726,7 @@
         <v>708</v>
       </c>
       <c r="I120" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J120" t="s">
         <v>19</v>
@@ -8805,10 +8805,10 @@
         <v>26</v>
       </c>
       <c r="J122" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K122" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L122" t="s">
         <v>19</v>
@@ -8831,25 +8831,25 @@
         <v>724</v>
       </c>
       <c r="F123" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G123" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H123" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I123" t="s">
         <v>26</v>
       </c>
       <c r="J123" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K123" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -8884,7 +8884,7 @@
         <v>26</v>
       </c>
       <c r="K124" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L124" t="s">
         <v>19</v>
@@ -8922,10 +8922,10 @@
         <v>26</v>
       </c>
       <c r="K125" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L125" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -8977,25 +8977,25 @@
         <v>745</v>
       </c>
       <c r="F127" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G127" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H127" t="s">
         <v>746</v>
       </c>
       <c r="I127" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J127" t="s">
         <v>28</v>
       </c>
       <c r="K127" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L127" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -9024,7 +9024,7 @@
         <v>752</v>
       </c>
       <c r="I128" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J128" t="s">
         <v>28</v>
@@ -9033,7 +9033,7 @@
         <v>28</v>
       </c>
       <c r="L128" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -9062,16 +9062,16 @@
         <v>758</v>
       </c>
       <c r="I129" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J129" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K129" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L129" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -9100,10 +9100,10 @@
         <v>764</v>
       </c>
       <c r="I130" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K130" t="s">
         <v>19</v>
@@ -9141,13 +9141,13 @@
         <v>26</v>
       </c>
       <c r="J131" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K131" t="s">
         <v>19</v>
       </c>
       <c r="L131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -9176,13 +9176,13 @@
         <v>776</v>
       </c>
       <c r="I132" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J132" t="s">
         <v>28</v>
       </c>
       <c r="K132" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L132" t="s">
         <v>36</v>
@@ -9214,16 +9214,16 @@
         <v>782</v>
       </c>
       <c r="I133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J133" t="s">
         <v>783</v>
       </c>
       <c r="K133" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L133" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -9252,16 +9252,16 @@
         <v>789</v>
       </c>
       <c r="I134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J134" t="s">
         <v>27</v>
       </c>
       <c r="K134" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L134" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -9290,16 +9290,16 @@
         <v>795</v>
       </c>
       <c r="I135" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J135" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K135" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L135" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -9394,10 +9394,10 @@
         <v>19</v>
       </c>
       <c r="K138" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L138" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -9432,10 +9432,10 @@
         <v>27</v>
       </c>
       <c r="K139" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L139" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/readable_data.xlsx
+++ b/readable_data.xlsx
@@ -255,6 +255,9 @@
     <t>0 3 4</t>
   </si>
   <si>
+    <t>0 1</t>
+  </si>
+  <si>
     <t>High Quality Electronic Cigarette Rolling Machine for Sale</t>
   </si>
   <si>
@@ -322,9 +325,6 @@
   </si>
   <si>
     <t>3 4</t>
-  </si>
-  <si>
-    <t>0 1</t>
   </si>
   <si>
     <t>1 2</t>
@@ -11218,7 +11218,7 @@
         <v>62</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -11232,31 +11232,31 @@
         <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
         <v>38</v>
       </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -11270,22 +11270,22 @@
         <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s">
         <v>61</v>
@@ -11308,31 +11308,31 @@
         <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
         <v>38</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L11" t="s">
         <v>85</v>
@@ -11657,10 +11657,10 @@
         <v>137</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s">
         <v>138</v>
@@ -11672,7 +11672,7 @@
         <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
@@ -11824,7 +11824,7 @@
         <v>18</v>
       </c>
       <c r="K24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L24" t="s">
         <v>19</v>
@@ -11903,7 +11903,7 @@
         <v>39</v>
       </c>
       <c r="L26" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -11938,7 +11938,7 @@
         <v>18</v>
       </c>
       <c r="K27" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
@@ -12158,7 +12158,7 @@
         <v>19</v>
       </c>
       <c r="K33" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
@@ -12345,7 +12345,7 @@
         <v>38</v>
       </c>
       <c r="J38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K38" t="s">
         <v>39</v>
@@ -12386,7 +12386,7 @@
         <v>17</v>
       </c>
       <c r="K39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
@@ -12728,7 +12728,7 @@
         <v>17</v>
       </c>
       <c r="K48" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
@@ -12804,7 +12804,7 @@
         <v>17</v>
       </c>
       <c r="K50" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
@@ -12880,7 +12880,7 @@
         <v>46</v>
       </c>
       <c r="K52" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
@@ -12918,7 +12918,7 @@
         <v>17</v>
       </c>
       <c r="K53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L53" t="s">
         <v>19</v>
@@ -12994,7 +12994,7 @@
         <v>17</v>
       </c>
       <c r="K55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L55" t="s">
         <v>19</v>
@@ -13070,7 +13070,7 @@
         <v>17</v>
       </c>
       <c r="K57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L57" t="s">
         <v>19</v>
@@ -13108,7 +13108,7 @@
         <v>17</v>
       </c>
       <c r="K58" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L58" t="s">
         <v>19</v>
@@ -13222,7 +13222,7 @@
         <v>17</v>
       </c>
       <c r="K61" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -13336,7 +13336,7 @@
         <v>17</v>
       </c>
       <c r="K64" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
@@ -13374,7 +13374,7 @@
         <v>17</v>
       </c>
       <c r="K65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L65" t="s">
         <v>19</v>
@@ -13412,7 +13412,7 @@
         <v>17</v>
       </c>
       <c r="K66" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
@@ -13594,7 +13594,7 @@
         <v>424</v>
       </c>
       <c r="K71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L71" t="s">
         <v>19</v>
@@ -13814,10 +13814,10 @@
         <v>19</v>
       </c>
       <c r="K77" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L77" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -13966,7 +13966,7 @@
         <v>19</v>
       </c>
       <c r="K81" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
@@ -14080,7 +14080,7 @@
         <v>19</v>
       </c>
       <c r="K84" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L84" t="s">
         <v>17</v>
@@ -14308,10 +14308,10 @@
         <v>19</v>
       </c>
       <c r="K90" t="s">
+        <v>71</v>
+      </c>
+      <c r="L90" t="s">
         <v>39</v>
-      </c>
-      <c r="L90" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -14346,7 +14346,7 @@
         <v>522</v>
       </c>
       <c r="K91" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
@@ -14669,7 +14669,7 @@
         <v>54</v>
       </c>
       <c r="J100" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K100" t="s">
         <v>39</v>
@@ -14778,7 +14778,7 @@
         <v>18</v>
       </c>
       <c r="K103" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L103" t="s">
         <v>19</v>
@@ -14854,7 +14854,7 @@
         <v>19</v>
       </c>
       <c r="K105" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
@@ -14998,7 +14998,7 @@
         <v>46</v>
       </c>
       <c r="K109" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
@@ -15036,7 +15036,7 @@
         <v>46</v>
       </c>
       <c r="K110" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L110" t="s">
         <v>19</v>
@@ -15071,7 +15071,7 @@
         <v>38</v>
       </c>
       <c r="J111" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K111" t="s">
         <v>47</v>
@@ -15188,7 +15188,7 @@
         <v>19</v>
       </c>
       <c r="K114" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L114" t="s">
         <v>17</v>
@@ -15261,7 +15261,7 @@
         <v>47</v>
       </c>
       <c r="J116" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K116" t="s">
         <v>47</v>
@@ -15406,7 +15406,7 @@
         <v>46</v>
       </c>
       <c r="K120" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L120" t="s">
         <v>687</v>
@@ -15634,7 +15634,7 @@
         <v>19</v>
       </c>
       <c r="K126" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L126" t="s">
         <v>17</v>
@@ -15672,7 +15672,7 @@
         <v>39</v>
       </c>
       <c r="K127" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L127" t="s">
         <v>17</v>
@@ -15859,7 +15859,7 @@
         <v>38</v>
       </c>
       <c r="J132" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K132" t="s">
         <v>39</v>
@@ -15897,13 +15897,13 @@
         <v>38</v>
       </c>
       <c r="J133" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K133" t="s">
         <v>39</v>
       </c>
       <c r="L133" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -15935,7 +15935,7 @@
         <v>38</v>
       </c>
       <c r="J134" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K134" t="s">
         <v>39</v>
@@ -15973,10 +15973,10 @@
         <v>38</v>
       </c>
       <c r="J135" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K135" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L135" t="s">
         <v>17</v>
@@ -16011,7 +16011,7 @@
         <v>47</v>
       </c>
       <c r="J136" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K136" t="s">
         <v>19</v>
@@ -16049,7 +16049,7 @@
         <v>19</v>
       </c>
       <c r="J137" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K137" t="s">
         <v>47</v>
@@ -16087,7 +16087,7 @@
         <v>38</v>
       </c>
       <c r="J138" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K138" t="s">
         <v>39</v>
@@ -16125,7 +16125,7 @@
         <v>38</v>
       </c>
       <c r="J139" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K139" t="s">
         <v>39</v>
@@ -16163,10 +16163,10 @@
         <v>47</v>
       </c>
       <c r="J140" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K140" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L140" t="s">
         <v>19</v>
@@ -16201,10 +16201,10 @@
         <v>38</v>
       </c>
       <c r="J141" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K141" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L141" t="s">
         <v>17</v>
@@ -16239,7 +16239,7 @@
         <v>47</v>
       </c>
       <c r="J142" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K142" t="s">
         <v>39</v>
@@ -16277,10 +16277,10 @@
         <v>47</v>
       </c>
       <c r="J143" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K143" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L143" t="s">
         <v>17</v>
@@ -16315,7 +16315,7 @@
         <v>54</v>
       </c>
       <c r="J144" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K144" t="s">
         <v>47</v>
@@ -16356,7 +16356,7 @@
         <v>38</v>
       </c>
       <c r="K145" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L145" t="s">
         <v>17</v>
@@ -16427,7 +16427,7 @@
         <v>38</v>
       </c>
       <c r="J147" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K147" t="s">
         <v>47</v>
@@ -16465,10 +16465,10 @@
         <v>38</v>
       </c>
       <c r="J148" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K148" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L148" t="s">
         <v>19</v>
@@ -16503,7 +16503,7 @@
         <v>54</v>
       </c>
       <c r="J149" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K149" t="s">
         <v>47</v>
@@ -16541,7 +16541,7 @@
         <v>38</v>
       </c>
       <c r="J150" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K150" t="s">
         <v>39</v>
@@ -16617,10 +16617,10 @@
         <v>61</v>
       </c>
       <c r="J152" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K152" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L152" t="s">
         <v>19</v>
@@ -16655,7 +16655,7 @@
         <v>38</v>
       </c>
       <c r="J153" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K153" t="s">
         <v>39</v>
@@ -16769,7 +16769,7 @@
         <v>38</v>
       </c>
       <c r="J156" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K156" t="s">
         <v>47</v>
@@ -16997,7 +16997,7 @@
         <v>54</v>
       </c>
       <c r="J162" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K162" t="s">
         <v>47</v>
@@ -17258,7 +17258,7 @@
         <v>18</v>
       </c>
       <c r="K169" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L169" t="s">
         <v>19</v>
@@ -17410,7 +17410,7 @@
         <v>18</v>
       </c>
       <c r="K173" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L173" t="s">
         <v>19</v>
@@ -17524,7 +17524,7 @@
         <v>18</v>
       </c>
       <c r="K176" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L176" t="s">
         <v>19</v>
@@ -17600,7 +17600,7 @@
         <v>18</v>
       </c>
       <c r="K178" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L178" t="s">
         <v>19</v>
@@ -17638,7 +17638,7 @@
         <v>18</v>
       </c>
       <c r="K179" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L179" t="s">
         <v>19</v>
@@ -18018,7 +18018,7 @@
         <v>46</v>
       </c>
       <c r="K189" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L189" t="s">
         <v>17</v>
@@ -18238,7 +18238,7 @@
         <v>17</v>
       </c>
       <c r="K195" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L195" t="s">
         <v>19</v>
@@ -18387,13 +18387,13 @@
         <v>61</v>
       </c>
       <c r="J199" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K199" t="s">
         <v>17</v>
       </c>
       <c r="L199" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -18461,7 +18461,7 @@
         <v>47</v>
       </c>
       <c r="L201" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -18496,7 +18496,7 @@
         <v>19</v>
       </c>
       <c r="K202" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="L202" t="s">
         <v>17</v>
@@ -18648,7 +18648,7 @@
         <v>46</v>
       </c>
       <c r="K206" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L206" t="s">
         <v>17</v>
@@ -18759,7 +18759,7 @@
         <v>38</v>
       </c>
       <c r="J209" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K209" t="s">
         <v>39</v>
@@ -18797,7 +18797,7 @@
         <v>47</v>
       </c>
       <c r="J210" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K210" t="s">
         <v>39</v>
@@ -18835,7 +18835,7 @@
         <v>38</v>
       </c>
       <c r="J211" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K211" t="s">
         <v>39</v>
@@ -18879,7 +18879,7 @@
         <v>92</v>
       </c>
       <c r="L212" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -18911,7 +18911,7 @@
         <v>38</v>
       </c>
       <c r="J213" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K213" t="s">
         <v>39</v>
@@ -18952,7 +18952,7 @@
         <v>17</v>
       </c>
       <c r="K214" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L214" t="s">
         <v>17</v>
@@ -19131,7 +19131,7 @@
         <v>38</v>
       </c>
       <c r="J219" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K219" t="s">
         <v>39</v>
@@ -19175,7 +19175,7 @@
         <v>39</v>
       </c>
       <c r="L220" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -19324,7 +19324,7 @@
         <v>199</v>
       </c>
       <c r="K224" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L224" t="s">
         <v>19</v>
@@ -19433,7 +19433,7 @@
         <v>39</v>
       </c>
       <c r="L227" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -19503,7 +19503,7 @@
         <v>38</v>
       </c>
       <c r="J229" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K229" t="s">
         <v>39</v>
@@ -19582,7 +19582,7 @@
         <v>19</v>
       </c>
       <c r="K231" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="L231" t="s">
         <v>17</v>
@@ -19620,7 +19620,7 @@
         <v>17</v>
       </c>
       <c r="K232" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L232" t="s">
         <v>17</v>
@@ -20061,22 +20061,22 @@
         <v>1375</v>
       </c>
       <c r="F244" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G244" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H244" t="s">
         <v>1376</v>
       </c>
       <c r="I244" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J244" t="s">
         <v>18</v>
       </c>
       <c r="K244" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="L244" t="s">
         <v>17</v>
@@ -20193,7 +20193,7 @@
         <v>17</v>
       </c>
       <c r="L247" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -20231,7 +20231,7 @@
         <v>39</v>
       </c>
       <c r="L248" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -20454,7 +20454,7 @@
         <v>47</v>
       </c>
       <c r="K254" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L254" t="s">
         <v>19</v>
@@ -20712,7 +20712,7 @@
         <v>19</v>
       </c>
       <c r="K261" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L261" t="s"/>
     </row>
@@ -20786,7 +20786,7 @@
         <v>19</v>
       </c>
       <c r="K263" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L263" t="s">
         <v>17</v>
@@ -21017,7 +21017,7 @@
         <v>1510</v>
       </c>
       <c r="L269" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -21087,7 +21087,7 @@
         <v>38</v>
       </c>
       <c r="J271" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K271" t="s">
         <v>39</v>
@@ -21125,7 +21125,7 @@
         <v>38</v>
       </c>
       <c r="J272" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K272" t="s">
         <v>39</v>
@@ -21163,7 +21163,7 @@
         <v>38</v>
       </c>
       <c r="J273" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K273" t="s">
         <v>39</v>
@@ -21201,10 +21201,10 @@
         <v>61</v>
       </c>
       <c r="J274" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K274" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L274" t="s">
         <v>19</v>
@@ -21239,7 +21239,7 @@
         <v>47</v>
       </c>
       <c r="J275" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K275" t="s">
         <v>39</v>
@@ -21277,10 +21277,10 @@
         <v>38</v>
       </c>
       <c r="J276" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K276" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L276" t="s">
         <v>17</v>
@@ -21315,7 +21315,7 @@
         <v>38</v>
       </c>
       <c r="J277" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K277" t="s">
         <v>47</v>
@@ -21356,7 +21356,7 @@
         <v>18</v>
       </c>
       <c r="K278" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L278" t="s">
         <v>19</v>
@@ -21394,7 +21394,7 @@
         <v>17</v>
       </c>
       <c r="K279" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L279" t="s">
         <v>19</v>
@@ -21432,7 +21432,7 @@
         <v>17</v>
       </c>
       <c r="K280" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L280" t="s">
         <v>17</v>
@@ -21614,7 +21614,7 @@
         <v>18</v>
       </c>
       <c r="K285" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L285" t="s">
         <v>19</v>
@@ -21758,7 +21758,7 @@
         <v>18</v>
       </c>
       <c r="K289" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L289" t="s">
         <v>19</v>
@@ -21902,7 +21902,7 @@
         <v>18</v>
       </c>
       <c r="K293" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L293" t="s">
         <v>19</v>
@@ -22926,7 +22926,7 @@
         <v>19</v>
       </c>
       <c r="K321" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L321" t="s">
         <v>19</v>
@@ -22964,7 +22964,7 @@
         <v>19</v>
       </c>
       <c r="K322" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L322" t="s">
         <v>19</v>
@@ -23081,7 +23081,7 @@
         <v>17</v>
       </c>
       <c r="L325" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -23113,13 +23113,13 @@
         <v>47</v>
       </c>
       <c r="J326" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K326" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="L326" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -23189,7 +23189,7 @@
         <v>38</v>
       </c>
       <c r="J328" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K328" t="s">
         <v>39</v>
@@ -23347,7 +23347,7 @@
         <v>17</v>
       </c>
       <c r="L332" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -23572,7 +23572,7 @@
         <v>18</v>
       </c>
       <c r="K338" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L338" t="s">
         <v>19</v>
@@ -23686,10 +23686,10 @@
         <v>17</v>
       </c>
       <c r="K341" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L341" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -23841,7 +23841,7 @@
         <v>39</v>
       </c>
       <c r="L345" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -23917,7 +23917,7 @@
         <v>39</v>
       </c>
       <c r="L347" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -24098,11 +24098,17 @@
         <v>1961</v>
       </c>
       <c r="I352" t="s">
-        <v>38</v>
-      </c>
-      <c r="J352" t="s"/>
-      <c r="K352" t="s"/>
-      <c r="L352" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="J352" t="s">
+        <v>71</v>
+      </c>
+      <c r="K352" t="s">
+        <v>17</v>
+      </c>
+      <c r="L352" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="353" spans="1:12">
       <c r="A353" s="1" t="n">
@@ -24133,7 +24139,7 @@
         <v>38</v>
       </c>
       <c r="J353" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K353" t="s">
         <v>39</v>
@@ -24171,7 +24177,7 @@
         <v>47</v>
       </c>
       <c r="J354" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K354" t="s">
         <v>39</v>
@@ -24209,10 +24215,10 @@
         <v>47</v>
       </c>
       <c r="J355" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K355" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L355" t="s">
         <v>19</v>
@@ -24247,7 +24253,7 @@
         <v>54</v>
       </c>
       <c r="J356" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K356" t="s">
         <v>47</v>
@@ -24717,13 +24723,13 @@
         <v>47</v>
       </c>
       <c r="J369" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K369" t="s">
         <v>39</v>
       </c>
       <c r="L369" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -24831,10 +24837,10 @@
         <v>47</v>
       </c>
       <c r="J372" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K372" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L372" t="s">
         <v>19</v>
@@ -24869,7 +24875,7 @@
         <v>18</v>
       </c>
       <c r="J373" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K373" t="s">
         <v>47</v>
@@ -25024,7 +25030,7 @@
         <v>19</v>
       </c>
       <c r="K377" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L377" t="s">
         <v>19</v>
@@ -25135,7 +25141,7 @@
         <v>18</v>
       </c>
       <c r="J380" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K380" t="s">
         <v>47</v>
@@ -25211,7 +25217,7 @@
         <v>38</v>
       </c>
       <c r="J382" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K382" t="s">
         <v>39</v>
@@ -25249,7 +25255,7 @@
         <v>38</v>
       </c>
       <c r="J383" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K383" t="s">
         <v>39</v>
@@ -25350,7 +25356,7 @@
         <v>17</v>
       </c>
       <c r="K386" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L386" t="s">
         <v>17</v>
@@ -25423,7 +25429,7 @@
         <v>38</v>
       </c>
       <c r="J388" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K388" t="s">
         <v>47</v>

--- a/readable_data.xlsx
+++ b/readable_data.xlsx
@@ -12918,7 +12918,7 @@
         <v>17</v>
       </c>
       <c r="K53" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="L53" t="s">
         <v>19</v>
@@ -13374,7 +13374,7 @@
         <v>17</v>
       </c>
       <c r="K65" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="L65" t="s">
         <v>19</v>
@@ -15406,7 +15406,7 @@
         <v>46</v>
       </c>
       <c r="K120" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="L120" t="s">
         <v>687</v>
@@ -20454,7 +20454,7 @@
         <v>47</v>
       </c>
       <c r="K254" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="L254" t="s">
         <v>19</v>
@@ -21758,7 +21758,7 @@
         <v>18</v>
       </c>
       <c r="K289" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="L289" t="s">
         <v>19</v>
@@ -22964,7 +22964,7 @@
         <v>19</v>
       </c>
       <c r="K322" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="L322" t="s">
         <v>19</v>

--- a/readable_data.xlsx
+++ b/readable_data.xlsx
@@ -12386,7 +12386,7 @@
         <v>17</v>
       </c>
       <c r="K39" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
@@ -12994,7 +12994,7 @@
         <v>17</v>
       </c>
       <c r="K55" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="L55" t="s">
         <v>19</v>
@@ -13070,7 +13070,7 @@
         <v>17</v>
       </c>
       <c r="K57" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="L57" t="s">
         <v>19</v>
@@ -13108,7 +13108,7 @@
         <v>17</v>
       </c>
       <c r="K58" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="L58" t="s">
         <v>19</v>
@@ -13594,7 +13594,7 @@
         <v>424</v>
       </c>
       <c r="K71" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="L71" t="s">
         <v>19</v>
@@ -13966,7 +13966,7 @@
         <v>19</v>
       </c>
       <c r="K81" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
@@ -15036,7 +15036,7 @@
         <v>46</v>
       </c>
       <c r="K110" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="L110" t="s">
         <v>19</v>
@@ -18238,7 +18238,7 @@
         <v>17</v>
       </c>
       <c r="K195" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="L195" t="s">
         <v>19</v>
@@ -19324,7 +19324,7 @@
         <v>199</v>
       </c>
       <c r="K224" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="L224" t="s">
         <v>19</v>
@@ -23686,7 +23686,7 @@
         <v>17</v>
       </c>
       <c r="K341" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="L341" t="s">
         <v>63</v>

--- a/readable_data.xlsx
+++ b/readable_data.xlsx
@@ -14604,8 +14604,8 @@
       <c r="J47" t="s">
         <v>17</v>
       </c>
-      <c r="K47" t="s">
-        <v>61</v>
+      <c r="K47" t="n">
+        <v>6</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
@@ -15212,8 +15212,8 @@
       <c r="J63" t="s">
         <v>17</v>
       </c>
-      <c r="K63" t="s">
-        <v>61</v>
+      <c r="K63" t="n">
+        <v>6</v>
       </c>
       <c r="L63" t="s">
         <v>19</v>
@@ -15288,8 +15288,8 @@
       <c r="J65" t="s">
         <v>17</v>
       </c>
-      <c r="K65" t="s">
-        <v>61</v>
+      <c r="K65" t="n">
+        <v>6</v>
       </c>
       <c r="L65" t="s">
         <v>19</v>
@@ -15402,8 +15402,8 @@
       <c r="J68" t="s">
         <v>17</v>
       </c>
-      <c r="K68" t="s">
-        <v>61</v>
+      <c r="K68" t="n">
+        <v>6</v>
       </c>
       <c r="L68" t="s">
         <v>19</v>
@@ -15440,8 +15440,8 @@
       <c r="J69" t="s">
         <v>17</v>
       </c>
-      <c r="K69" t="s">
-        <v>61</v>
+      <c r="K69" t="n">
+        <v>6</v>
       </c>
       <c r="L69" t="s">
         <v>19</v>
@@ -15782,8 +15782,8 @@
       <c r="J78" t="s">
         <v>17</v>
       </c>
-      <c r="K78" t="s">
-        <v>61</v>
+      <c r="K78" t="n">
+        <v>6</v>
       </c>
       <c r="L78" t="s">
         <v>19</v>
@@ -16078,8 +16078,8 @@
       <c r="J86" t="s">
         <v>510</v>
       </c>
-      <c r="K86" t="s">
-        <v>61</v>
+      <c r="K86" t="n">
+        <v>6</v>
       </c>
       <c r="L86" t="s">
         <v>19</v>
@@ -16564,8 +16564,8 @@
       <c r="J99" t="s">
         <v>19</v>
       </c>
-      <c r="K99" t="s">
-        <v>61</v>
+      <c r="K99" t="n">
+        <v>6</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
@@ -17824,8 +17824,8 @@
       <c r="J133" t="s">
         <v>46</v>
       </c>
-      <c r="K133" t="s">
-        <v>61</v>
+      <c r="K133" t="n">
+        <v>6</v>
       </c>
       <c r="L133" t="s">
         <v>19</v>
@@ -18194,8 +18194,8 @@
       <c r="J143" t="s">
         <v>46</v>
       </c>
-      <c r="K143" t="s">
-        <v>61</v>
+      <c r="K143" t="n">
+        <v>6</v>
       </c>
       <c r="L143" t="s">
         <v>809</v>
@@ -21656,8 +21656,8 @@
       <c r="J235" t="s">
         <v>17</v>
       </c>
-      <c r="K235" t="s">
-        <v>61</v>
+      <c r="K235" t="n">
+        <v>6</v>
       </c>
       <c r="L235" t="s">
         <v>19</v>
@@ -22023,7 +22023,7 @@
         <v>1375</v>
       </c>
       <c r="I245" t="s">
-        <v>47</v>
+        <v>778</v>
       </c>
       <c r="J245" t="s">
         <v>18</v>
@@ -22061,7 +22061,7 @@
         <v>1381</v>
       </c>
       <c r="I246" t="s">
-        <v>47</v>
+        <v>743</v>
       </c>
       <c r="J246" t="s">
         <v>46</v>
@@ -22251,7 +22251,7 @@
         <v>1409</v>
       </c>
       <c r="I251" t="s">
-        <v>47</v>
+        <v>743</v>
       </c>
       <c r="J251" t="s">
         <v>71</v>
@@ -22894,8 +22894,8 @@
       <c r="J268" t="s">
         <v>222</v>
       </c>
-      <c r="K268" t="s">
-        <v>61</v>
+      <c r="K268" t="n">
+        <v>6</v>
       </c>
       <c r="L268" t="s">
         <v>19</v>
@@ -23033,7 +23033,7 @@
         <v>1524</v>
       </c>
       <c r="I272" t="s">
-        <v>47</v>
+        <v>743</v>
       </c>
       <c r="J272" t="s">
         <v>46</v>
@@ -24173,7 +24173,7 @@
         <v>1685</v>
       </c>
       <c r="I302" t="s">
-        <v>47</v>
+        <v>778</v>
       </c>
       <c r="J302" t="s">
         <v>17</v>
@@ -24366,8 +24366,8 @@
       <c r="J307" t="s">
         <v>47</v>
       </c>
-      <c r="K307" t="s">
-        <v>61</v>
+      <c r="K307" t="n">
+        <v>6</v>
       </c>
       <c r="L307" t="s">
         <v>19</v>
@@ -24736,8 +24736,8 @@
       <c r="J317" t="s">
         <v>624</v>
       </c>
-      <c r="K317" t="s">
-        <v>61</v>
+      <c r="K317" t="n">
+        <v>6</v>
       </c>
       <c r="L317" t="s">
         <v>19</v>
@@ -24921,7 +24921,7 @@
         <v>1794</v>
       </c>
       <c r="I322" t="s">
-        <v>47</v>
+        <v>743</v>
       </c>
       <c r="J322" t="s">
         <v>18</v>
@@ -24997,7 +24997,7 @@
         <v>1807</v>
       </c>
       <c r="I324" t="s">
-        <v>47</v>
+        <v>743</v>
       </c>
       <c r="J324" t="s">
         <v>46</v>
@@ -25339,7 +25339,7 @@
         <v>1854</v>
       </c>
       <c r="I333" t="s">
-        <v>47</v>
+        <v>743</v>
       </c>
       <c r="J333" t="s">
         <v>71</v>
@@ -25898,8 +25898,8 @@
       <c r="J348" t="s">
         <v>18</v>
       </c>
-      <c r="K348" t="s">
-        <v>61</v>
+      <c r="K348" t="n">
+        <v>6</v>
       </c>
       <c r="L348" t="s">
         <v>19</v>
@@ -26333,7 +26333,7 @@
         <v>2001</v>
       </c>
       <c r="I360" t="s">
-        <v>47</v>
+        <v>743</v>
       </c>
       <c r="J360" t="s">
         <v>17</v>
@@ -27294,8 +27294,8 @@
       <c r="J386" t="s">
         <v>19</v>
       </c>
-      <c r="K386" t="s">
-        <v>61</v>
+      <c r="K386" t="n">
+        <v>6</v>
       </c>
       <c r="L386" t="s">
         <v>19</v>
@@ -27441,7 +27441,7 @@
         <v>2160</v>
       </c>
       <c r="I390" t="s">
-        <v>47</v>
+        <v>743</v>
       </c>
       <c r="J390" t="s">
         <v>71</v>
@@ -27479,7 +27479,7 @@
         <v>2166</v>
       </c>
       <c r="I391" t="s">
-        <v>47</v>
+        <v>743</v>
       </c>
       <c r="J391" t="s">
         <v>46</v>
@@ -28092,8 +28092,8 @@
       <c r="J407" t="s">
         <v>17</v>
       </c>
-      <c r="K407" t="s">
-        <v>61</v>
+      <c r="K407" t="n">
+        <v>6</v>
       </c>
       <c r="L407" t="s">
         <v>63</v>
@@ -28695,7 +28695,7 @@
         <v>2339</v>
       </c>
       <c r="I423" t="s">
-        <v>47</v>
+        <v>743</v>
       </c>
       <c r="J423" t="s">
         <v>71</v>
@@ -28771,7 +28771,7 @@
         <v>2347</v>
       </c>
       <c r="I425" t="s">
-        <v>47</v>
+        <v>743</v>
       </c>
       <c r="J425" t="s">
         <v>71</v>
@@ -28809,7 +28809,7 @@
         <v>2353</v>
       </c>
       <c r="I426" t="s">
-        <v>47</v>
+        <v>743</v>
       </c>
       <c r="J426" t="s">
         <v>71</v>
@@ -29461,7 +29461,7 @@
         <v>2455</v>
       </c>
       <c r="I444" t="s">
-        <v>47</v>
+        <v>743</v>
       </c>
       <c r="J444" t="s">
         <v>71</v>
@@ -29613,7 +29613,7 @@
         <v>2480</v>
       </c>
       <c r="I448" t="s">
-        <v>47</v>
+        <v>743</v>
       </c>
       <c r="J448" t="s">
         <v>70</v>
@@ -29732,8 +29732,8 @@
       <c r="J451" t="s">
         <v>17</v>
       </c>
-      <c r="K451" t="s">
-        <v>61</v>
+      <c r="K451" t="n">
+        <v>6</v>
       </c>
       <c r="L451" t="s">
         <v>63</v>
@@ -29879,7 +29879,7 @@
         <v>2518</v>
       </c>
       <c r="I455" t="s">
-        <v>47</v>
+        <v>743</v>
       </c>
       <c r="J455" t="s">
         <v>19</v>
@@ -29917,7 +29917,7 @@
         <v>2524</v>
       </c>
       <c r="I456" t="s">
-        <v>47</v>
+        <v>743</v>
       </c>
       <c r="J456" t="s">
         <v>46</v>
@@ -29955,7 +29955,7 @@
         <v>2530</v>
       </c>
       <c r="I457" t="s">
-        <v>47</v>
+        <v>778</v>
       </c>
       <c r="J457" t="s">
         <v>46</v>
@@ -30031,7 +30031,7 @@
         <v>2542</v>
       </c>
       <c r="I459" t="s">
-        <v>47</v>
+        <v>743</v>
       </c>
       <c r="J459" t="s">
         <v>46</v>

--- a/readable_data.xlsx
+++ b/readable_data.xlsx
@@ -21922,7 +21922,7 @@
         <v>17</v>
       </c>
       <c r="K111" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
@@ -26810,7 +26810,7 @@
         <v>95</v>
       </c>
       <c r="K240" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="L240" t="s">
         <v>19</v>
@@ -31336,7 +31336,7 @@
         <v>18</v>
       </c>
       <c r="K360" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="L360" t="s">
         <v>19</v>
@@ -35406,7 +35406,7 @@
         <v>51</v>
       </c>
       <c r="K468" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="L468" t="s">
         <v>17</v>
@@ -39852,7 +39852,7 @@
         <v>17</v>
       </c>
       <c r="K585" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="L585" t="s">
         <v>75</v>
@@ -41196,7 +41196,7 @@
         <v>17</v>
       </c>
       <c r="K621" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="L621" t="s">
         <v>44</v>
@@ -42472,7 +42472,7 @@
         <v>17</v>
       </c>
       <c r="K655" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="L655" t="s">
         <v>75</v>

--- a/readable_data.xlsx
+++ b/readable_data.xlsx
@@ -1772,6 +1772,9 @@
 välkomna och hoppas ni uppskattar det jag pysslar med här på min sida av youtube.</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>2 Chainz Checks Out the Most Expensivest Vape Pens | Most Expensivest | GQ &amp; VICELAND</t>
   </si>
   <si>
@@ -2817,9 +2820,6 @@
 direkt nachricht: instagram @fogdog_v4l
 *** laut den youtube richtlinien sind gesponserte und kostenlos zur verfügung gestellte produkte sowie links zu herstellern und shops die e-zigaretten, liquids oder nikotinhaltige produkte führen verboten!!! deshalb möchte ich nochmals drauf hinweisen, dass alle gezeigte produkte von mir nachweislich gekauft worden sind. ***
 #top5 #allday #liquid</t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
   <si>
     <t>Our Preferable Liquids</t>
@@ -15389,9 +15389,6 @@
 snapchat: @mtbakervapor</t>
   </si>
   <si>
-    <t>4 10</t>
-  </si>
-  <si>
     <t>Vaping Tips - Breathing and Steeping eJuice!</t>
   </si>
   <si>
@@ -15840,6 +15837,9 @@
   </si>
   <si>
     <t>want to turn your mod off quickly? lock your mod? change form temp mode to watt mode? change the strength setting? you don't need to go into the menu to do so, just watch this video to learn how to quickly change the settings using the smok shortcuts.</t>
+  </si>
+  <si>
+    <t>1 n n</t>
   </si>
   <si>
     <t>The most Durable Compact vape mod EVER! Aegis Mini Review</t>
@@ -26450,10 +26450,18 @@
       <c r="H65" t="s">
         <v>398</v>
       </c>
-      <c r="I65" t="s"/>
-      <c r="J65" t="s"/>
-      <c r="K65" t="s"/>
-      <c r="L65" t="s"/>
+      <c r="I65" t="s">
+        <v>399</v>
+      </c>
+      <c r="J65" t="s">
+        <v>399</v>
+      </c>
+      <c r="K65" t="s">
+        <v>399</v>
+      </c>
+      <c r="L65" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1" t="n">
@@ -26463,22 +26471,22 @@
         <v>297</v>
       </c>
       <c r="C66" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D66" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E66" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F66" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G66" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H66" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I66" t="s">
         <v>18</v>
@@ -26501,22 +26509,22 @@
         <v>300</v>
       </c>
       <c r="C67" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D67" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E67" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F67" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G67" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H67" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I67" t="s">
         <v>76</v>
@@ -26539,22 +26547,22 @@
         <v>305</v>
       </c>
       <c r="C68" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D68" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E68" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F68" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G68" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H68" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I68" t="s">
         <v>115</v>
@@ -26577,22 +26585,22 @@
         <v>313</v>
       </c>
       <c r="C69" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D69" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E69" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F69" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G69" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H69" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I69" t="s">
         <v>43</v>
@@ -26615,28 +26623,28 @@
         <v>321</v>
       </c>
       <c r="C70" t="s">
+        <v>424</v>
+      </c>
+      <c r="D70" t="s">
+        <v>425</v>
+      </c>
+      <c r="E70" t="s">
+        <v>426</v>
+      </c>
+      <c r="F70" t="s">
+        <v>421</v>
+      </c>
+      <c r="G70" t="s">
+        <v>422</v>
+      </c>
+      <c r="H70" t="s">
         <v>423</v>
       </c>
-      <c r="D70" t="s">
-        <v>424</v>
-      </c>
-      <c r="E70" t="s">
-        <v>425</v>
-      </c>
-      <c r="F70" t="s">
-        <v>420</v>
-      </c>
-      <c r="G70" t="s">
-        <v>421</v>
-      </c>
-      <c r="H70" t="s">
-        <v>422</v>
-      </c>
       <c r="I70" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J70" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K70" t="s">
         <v>101</v>
@@ -26653,13 +26661,13 @@
         <v>337</v>
       </c>
       <c r="C71" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D71" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E71" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F71" t="s">
         <v>128</v>
@@ -26668,7 +26676,7 @@
         <v>129</v>
       </c>
       <c r="H71" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I71" t="s">
         <v>115</v>
@@ -26691,22 +26699,22 @@
         <v>338</v>
       </c>
       <c r="C72" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D72" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E72" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F72" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G72" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H72" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I72" t="s">
         <v>43</v>
@@ -26729,22 +26737,22 @@
         <v>339</v>
       </c>
       <c r="C73" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D73" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E73" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F73" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G73" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H73" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I73" t="s">
         <v>76</v>
@@ -26767,22 +26775,22 @@
         <v>349</v>
       </c>
       <c r="C74" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D74" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E74" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F74" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G74" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H74" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I74" t="s">
         <v>43</v>
@@ -26805,22 +26813,22 @@
         <v>350</v>
       </c>
       <c r="C75" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D75" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E75" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F75" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G75" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H75" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I75" t="s">
         <v>75</v>
@@ -26843,22 +26851,22 @@
         <v>351</v>
       </c>
       <c r="C76" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D76" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E76" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F76" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G76" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H76" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I76" t="s">
         <v>43</v>
@@ -26881,34 +26889,34 @@
         <v>359</v>
       </c>
       <c r="C77" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D77" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E77" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F77" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G77" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H77" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I77" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J77" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K77" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L77" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -26919,22 +26927,22 @@
         <v>365</v>
       </c>
       <c r="C78" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D78" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E78" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F78" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G78" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H78" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I78" t="s">
         <v>76</v>
@@ -26957,25 +26965,25 @@
         <v>367</v>
       </c>
       <c r="C79" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D79" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E79" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F79" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G79" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H79" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I79" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J79" t="s">
         <v>18</v>
@@ -26995,13 +27003,13 @@
         <v>371</v>
       </c>
       <c r="C80" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D80" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E80" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F80" t="s">
         <v>14</v>
@@ -27010,7 +27018,7 @@
         <v>15</v>
       </c>
       <c r="H80" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I80" t="s">
         <v>17</v>
@@ -27033,13 +27041,13 @@
         <v>373</v>
       </c>
       <c r="C81" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D81" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E81" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F81" t="s">
         <v>128</v>
@@ -27048,7 +27056,7 @@
         <v>129</v>
       </c>
       <c r="H81" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I81" t="s">
         <v>17</v>
@@ -27071,22 +27079,22 @@
         <v>382</v>
       </c>
       <c r="C82" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D82" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E82" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F82" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G82" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H82" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I82" t="s">
         <v>43</v>
@@ -27109,22 +27117,22 @@
         <v>383</v>
       </c>
       <c r="C83" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D83" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E83" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F83" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G83" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H83" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I83" t="s">
         <v>183</v>
@@ -27147,22 +27155,22 @@
         <v>384</v>
       </c>
       <c r="C84" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D84" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E84" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F84" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G84" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H84" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I84" t="s">
         <v>17</v>
@@ -27185,22 +27193,22 @@
         <v>391</v>
       </c>
       <c r="C85" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D85" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E85" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F85" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G85" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H85" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I85" t="s">
         <v>115</v>
@@ -27223,13 +27231,13 @@
         <v>392</v>
       </c>
       <c r="C86" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D86" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E86" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F86" t="s">
         <v>306</v>
@@ -27238,10 +27246,10 @@
         <v>307</v>
       </c>
       <c r="H86" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I86" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J86" t="s">
         <v>18</v>
@@ -27261,22 +27269,22 @@
         <v>395</v>
       </c>
       <c r="C87" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D87" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E87" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F87" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G87" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H87" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I87" t="s">
         <v>18</v>
@@ -27299,13 +27307,13 @@
         <v>402</v>
       </c>
       <c r="C88" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D88" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E88" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F88" t="s">
         <v>306</v>
@@ -27314,10 +27322,10 @@
         <v>307</v>
       </c>
       <c r="H88" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="I88" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="J88" t="s">
         <v>18</v>
@@ -27337,22 +27345,22 @@
         <v>403</v>
       </c>
       <c r="C89" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D89" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E89" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F89" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G89" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H89" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I89" t="s">
         <v>17</v>
@@ -27375,22 +27383,22 @@
         <v>408</v>
       </c>
       <c r="C90" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D90" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E90" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F90" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G90" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H90" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I90" t="s">
         <v>18</v>
@@ -27413,22 +27421,22 @@
         <v>414</v>
       </c>
       <c r="C91" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D91" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E91" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F91" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G91" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H91" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="I91" t="s">
         <v>75</v>
@@ -27451,22 +27459,22 @@
         <v>416</v>
       </c>
       <c r="C92" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D92" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E92" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F92" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G92" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H92" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I92" t="s">
         <v>18</v>
@@ -27489,22 +27497,22 @@
         <v>418</v>
       </c>
       <c r="C93" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D93" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E93" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F93" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G93" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H93" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I93" t="s">
         <v>17</v>
@@ -27527,22 +27535,22 @@
         <v>423</v>
       </c>
       <c r="C94" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D94" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E94" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F94" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G94" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H94" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I94" t="s">
         <v>18</v>
@@ -27565,22 +27573,22 @@
         <v>425</v>
       </c>
       <c r="C95" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D95" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E95" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F95" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G95" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H95" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I95" t="s">
         <v>115</v>
@@ -27603,22 +27611,22 @@
         <v>429</v>
       </c>
       <c r="C96" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D96" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E96" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F96" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G96" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H96" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="I96" t="s">
         <v>75</v>
@@ -27641,13 +27649,13 @@
         <v>431</v>
       </c>
       <c r="C97" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D97" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E97" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F97" t="s">
         <v>128</v>
@@ -27656,7 +27664,7 @@
         <v>129</v>
       </c>
       <c r="H97" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I97" t="s">
         <v>17</v>
@@ -27679,13 +27687,13 @@
         <v>432</v>
       </c>
       <c r="C98" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D98" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E98" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F98" t="s">
         <v>128</v>
@@ -27694,7 +27702,7 @@
         <v>129</v>
       </c>
       <c r="H98" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I98" t="s">
         <v>18</v>
@@ -27717,22 +27725,22 @@
         <v>434</v>
       </c>
       <c r="C99" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D99" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E99" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F99" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G99" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H99" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="I99" t="s">
         <v>18</v>
@@ -27755,22 +27763,22 @@
         <v>435</v>
       </c>
       <c r="C100" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D100" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E100" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F100" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G100" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H100" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I100" t="s">
         <v>18</v>
@@ -27793,22 +27801,22 @@
         <v>440</v>
       </c>
       <c r="C101" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D101" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E101" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F101" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G101" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H101" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="I101" t="s">
         <v>17</v>
@@ -27831,13 +27839,13 @@
         <v>441</v>
       </c>
       <c r="C102" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D102" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E102" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F102" t="s">
         <v>40</v>
@@ -27846,7 +27854,7 @@
         <v>41</v>
       </c>
       <c r="H102" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="I102" t="s">
         <v>43</v>
@@ -27869,25 +27877,25 @@
         <v>442</v>
       </c>
       <c r="C103" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D103" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E103" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F103" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G103" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H103" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="I103" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="J103" t="s">
         <v>101</v>
@@ -27907,22 +27915,22 @@
         <v>445</v>
       </c>
       <c r="C104" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D104" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E104" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F104" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G104" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H104" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="I104" t="s">
         <v>43</v>
@@ -27945,13 +27953,13 @@
         <v>446</v>
       </c>
       <c r="C105" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D105" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E105" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F105" t="s">
         <v>379</v>
@@ -27960,7 +27968,7 @@
         <v>380</v>
       </c>
       <c r="H105" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="I105" t="s">
         <v>43</v>
@@ -27983,22 +27991,22 @@
         <v>447</v>
       </c>
       <c r="C106" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D106" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E106" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F106" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G106" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H106" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I106" t="s">
         <v>115</v>
@@ -28021,34 +28029,34 @@
         <v>448</v>
       </c>
       <c r="C107" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D107" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E107" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F107" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G107" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H107" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="I107" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="J107" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="K107" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="L107" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -28074,7 +28082,7 @@
         <v>380</v>
       </c>
       <c r="H108" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="I108" t="s">
         <v>43</v>
@@ -28114,10 +28122,18 @@
       <c r="H109" t="s">
         <v>638</v>
       </c>
-      <c r="I109" t="s"/>
-      <c r="J109" t="s"/>
-      <c r="K109" t="s"/>
-      <c r="L109" t="s"/>
+      <c r="I109" t="s">
+        <v>399</v>
+      </c>
+      <c r="J109" t="s">
+        <v>399</v>
+      </c>
+      <c r="K109" t="s">
+        <v>399</v>
+      </c>
+      <c r="L109" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="1" t="n">
@@ -28144,10 +28160,18 @@
       <c r="H110" t="s">
         <v>644</v>
       </c>
-      <c r="I110" t="s"/>
-      <c r="J110" t="s"/>
-      <c r="K110" t="s"/>
-      <c r="L110" t="s"/>
+      <c r="I110" t="s">
+        <v>399</v>
+      </c>
+      <c r="J110" t="s">
+        <v>399</v>
+      </c>
+      <c r="K110" t="s">
+        <v>399</v>
+      </c>
+      <c r="L110" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="1" t="n">
@@ -28666,7 +28690,7 @@
         <v>380</v>
       </c>
       <c r="H124" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="I124" t="s">
         <v>43</v>
@@ -29344,13 +29368,13 @@
         <v>820</v>
       </c>
       <c r="F142" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G142" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H142" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I142" t="s">
         <v>43</v>
@@ -29458,10 +29482,10 @@
         <v>831</v>
       </c>
       <c r="F145" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G145" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H145" t="s">
         <v>832</v>
@@ -29610,10 +29634,10 @@
         <v>851</v>
       </c>
       <c r="F149" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G149" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H149" t="s">
         <v>852</v>
@@ -29692,7 +29716,7 @@
         <v>380</v>
       </c>
       <c r="H151" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="I151" t="s">
         <v>43</v>
@@ -29800,13 +29824,13 @@
         <v>876</v>
       </c>
       <c r="F154" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G154" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H154" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I154" t="s">
         <v>115</v>
@@ -30148,7 +30172,7 @@
         <v>380</v>
       </c>
       <c r="H163" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="I163" t="s">
         <v>43</v>
@@ -30417,7 +30441,7 @@
         <v>958</v>
       </c>
       <c r="I170" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J170" t="s">
         <v>101</v>
@@ -30446,10 +30470,10 @@
         <v>961</v>
       </c>
       <c r="F171" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G171" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H171" t="s">
         <v>962</v>
@@ -30607,16 +30631,16 @@
         <v>984</v>
       </c>
       <c r="I175" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J175" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K175" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L175" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -30683,16 +30707,16 @@
         <v>984</v>
       </c>
       <c r="I177" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="J177" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="K177" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="L177" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -30987,16 +31011,16 @@
         <v>1037</v>
       </c>
       <c r="I185" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J185" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K185" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L185" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -31092,10 +31116,10 @@
         <v>1052</v>
       </c>
       <c r="F188" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G188" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H188" t="s">
         <v>1053</v>
@@ -31282,10 +31306,10 @@
         <v>1075</v>
       </c>
       <c r="F193" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G193" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H193" t="s">
         <v>1076</v>
@@ -31320,10 +31344,10 @@
         <v>1079</v>
       </c>
       <c r="F194" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G194" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H194" t="s">
         <v>1080</v>
@@ -31358,10 +31382,10 @@
         <v>1083</v>
       </c>
       <c r="F195" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G195" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H195" t="s">
         <v>1084</v>
@@ -31472,10 +31496,10 @@
         <v>1095</v>
       </c>
       <c r="F198" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G198" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H198" t="s">
         <v>1096</v>
@@ -31630,7 +31654,7 @@
         <v>380</v>
       </c>
       <c r="H202" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="I202" t="s">
         <v>43</v>
@@ -31700,10 +31724,10 @@
         <v>1120</v>
       </c>
       <c r="F204" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G204" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H204" t="s">
         <v>1121</v>
@@ -32232,13 +32256,13 @@
         <v>1186</v>
       </c>
       <c r="F218" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G218" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H218" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I218" t="s">
         <v>43</v>
@@ -32434,7 +32458,7 @@
         <v>43</v>
       </c>
       <c r="J223" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K223" t="s">
         <v>44</v>
@@ -32460,10 +32484,10 @@
         <v>1215</v>
       </c>
       <c r="F224" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G224" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H224" t="s">
         <v>1216</v>
@@ -32504,7 +32528,7 @@
         <v>380</v>
       </c>
       <c r="H225" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="I225" t="s">
         <v>43</v>
@@ -32924,10 +32948,18 @@
       <c r="H236" t="s">
         <v>1280</v>
       </c>
-      <c r="I236" t="s"/>
-      <c r="J236" t="s"/>
-      <c r="K236" t="s"/>
-      <c r="L236" t="s"/>
+      <c r="I236" t="s">
+        <v>399</v>
+      </c>
+      <c r="J236" t="s">
+        <v>399</v>
+      </c>
+      <c r="K236" t="s">
+        <v>399</v>
+      </c>
+      <c r="L236" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="237" spans="1:12">
       <c r="A237" s="1" t="n">
@@ -33069,16 +33101,16 @@
         <v>1304</v>
       </c>
       <c r="I240" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J240" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K240" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L240" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -33145,16 +33177,16 @@
         <v>1314</v>
       </c>
       <c r="I242" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J242" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K242" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L242" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -33450,7 +33482,7 @@
         <v>43</v>
       </c>
       <c r="J250" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K250" t="s">
         <v>44</v>
@@ -33523,16 +33555,16 @@
         <v>1364</v>
       </c>
       <c r="I252" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J252" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K252" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L252" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -33598,10 +33630,18 @@
       <c r="H254" t="s">
         <v>1377</v>
       </c>
-      <c r="I254" t="s"/>
-      <c r="J254" t="s"/>
-      <c r="K254" t="s"/>
-      <c r="L254" t="s"/>
+      <c r="I254" t="s">
+        <v>399</v>
+      </c>
+      <c r="J254" t="s">
+        <v>399</v>
+      </c>
+      <c r="K254" t="s">
+        <v>399</v>
+      </c>
+      <c r="L254" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="255" spans="1:12">
       <c r="A255" s="1" t="n">
@@ -33810,10 +33850,10 @@
         <v>1408</v>
       </c>
       <c r="F260" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G260" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H260" t="s">
         <v>1409</v>
@@ -34000,13 +34040,13 @@
         <v>1432</v>
       </c>
       <c r="F265" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G265" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H265" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I265" t="s">
         <v>43</v>
@@ -34085,16 +34125,16 @@
         <v>1442</v>
       </c>
       <c r="I267" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J267" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K267" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L267" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -34228,13 +34268,13 @@
         <v>1461</v>
       </c>
       <c r="F271" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G271" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H271" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I271" t="s">
         <v>43</v>
@@ -35069,16 +35109,16 @@
       </c>
       <c r="H293" t="s"/>
       <c r="I293" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J293" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K293" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L293" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -35376,7 +35416,7 @@
         <v>43</v>
       </c>
       <c r="J301" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K301" t="s">
         <v>44</v>
@@ -35782,13 +35822,13 @@
         <v>1670</v>
       </c>
       <c r="F312" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G312" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H312" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I312" t="s">
         <v>43</v>
@@ -36086,10 +36126,10 @@
         <v>1709</v>
       </c>
       <c r="F320" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G320" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H320" t="s">
         <v>1710</v>
@@ -36124,13 +36164,13 @@
         <v>1713</v>
       </c>
       <c r="F321" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G321" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H321" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I321" t="s">
         <v>43</v>
@@ -36170,10 +36210,18 @@
       <c r="H322" t="s">
         <v>1719</v>
       </c>
-      <c r="I322" t="s"/>
-      <c r="J322" t="s"/>
-      <c r="K322" t="s"/>
-      <c r="L322" t="s"/>
+      <c r="I322" t="s">
+        <v>399</v>
+      </c>
+      <c r="J322" t="s">
+        <v>399</v>
+      </c>
+      <c r="K322" t="s">
+        <v>399</v>
+      </c>
+      <c r="L322" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="323" spans="1:12">
       <c r="A323" s="1" t="n">
@@ -36276,10 +36324,18 @@
       <c r="H325" t="s">
         <v>1733</v>
       </c>
-      <c r="I325" t="s"/>
-      <c r="J325" t="s"/>
-      <c r="K325" t="s"/>
-      <c r="L325" t="s"/>
+      <c r="I325" t="s">
+        <v>399</v>
+      </c>
+      <c r="J325" t="s">
+        <v>399</v>
+      </c>
+      <c r="K325" t="s">
+        <v>399</v>
+      </c>
+      <c r="L325" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="326" spans="1:12">
       <c r="A326" s="1" t="n">
@@ -36836,7 +36892,7 @@
         <v>380</v>
       </c>
       <c r="H340" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="I340" t="s">
         <v>43</v>
@@ -37406,7 +37462,7 @@
         <v>380</v>
       </c>
       <c r="H355" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="I355" t="s">
         <v>43</v>
@@ -37523,16 +37579,16 @@
         <v>1902</v>
       </c>
       <c r="I358" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J358" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K358" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L358" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -39231,16 +39287,16 @@
         <v>2160</v>
       </c>
       <c r="I403" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J403" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K403" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L403" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -39345,16 +39401,16 @@
         <v>2175</v>
       </c>
       <c r="I406" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J406" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K406" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L406" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -40742,10 +40798,10 @@
         <v>2394</v>
       </c>
       <c r="F443" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G443" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H443" t="s">
         <v>2395</v>
@@ -40826,10 +40882,18 @@
       <c r="H445" t="s">
         <v>2407</v>
       </c>
-      <c r="I445" t="s"/>
-      <c r="J445" t="s"/>
-      <c r="K445" t="s"/>
-      <c r="L445" t="s"/>
+      <c r="I445" t="s">
+        <v>399</v>
+      </c>
+      <c r="J445" t="s">
+        <v>399</v>
+      </c>
+      <c r="K445" t="s">
+        <v>399</v>
+      </c>
+      <c r="L445" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="446" spans="1:12">
       <c r="A446" s="1" t="n">
@@ -40898,7 +40962,7 @@
         <v>43</v>
       </c>
       <c r="J447" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K447" t="s">
         <v>17</v>
@@ -41009,16 +41073,16 @@
         <v>2435</v>
       </c>
       <c r="I450" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="J450" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="K450" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="L450" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -41199,16 +41263,16 @@
         <v>2463</v>
       </c>
       <c r="I455" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J455" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K455" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L455" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -41243,7 +41307,7 @@
         <v>18</v>
       </c>
       <c r="K456" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L456" t="s">
         <v>44</v>
@@ -41312,10 +41376,18 @@
       <c r="H458" t="s">
         <v>2479</v>
       </c>
-      <c r="I458" t="s"/>
-      <c r="J458" t="s"/>
-      <c r="K458" t="s"/>
-      <c r="L458" t="s"/>
+      <c r="I458" t="s">
+        <v>399</v>
+      </c>
+      <c r="J458" t="s">
+        <v>399</v>
+      </c>
+      <c r="K458" t="s">
+        <v>399</v>
+      </c>
+      <c r="L458" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="459" spans="1:12">
       <c r="A459" s="1" t="n">
@@ -41372,10 +41444,10 @@
         <v>2488</v>
       </c>
       <c r="F460" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G460" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H460" t="s">
         <v>2489</v>
@@ -41606,7 +41678,7 @@
         <v>380</v>
       </c>
       <c r="H466" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="I466" t="s">
         <v>18</v>
@@ -41761,16 +41833,16 @@
         <v>2543</v>
       </c>
       <c r="I470" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="J470" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="K470" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="L470" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -41828,13 +41900,13 @@
         <v>2551</v>
       </c>
       <c r="F472" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G472" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H472" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I472" t="s">
         <v>43</v>
@@ -41942,13 +42014,13 @@
         <v>2566</v>
       </c>
       <c r="F475" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G475" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H475" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I475" t="s">
         <v>43</v>
@@ -42103,16 +42175,16 @@
         <v>2586</v>
       </c>
       <c r="I479" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J479" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K479" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L479" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -42141,16 +42213,16 @@
         <v>2592</v>
       </c>
       <c r="I480" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="J480" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="K480" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="L480" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -42179,16 +42251,16 @@
         <v>2598</v>
       </c>
       <c r="I481" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="J481" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="K481" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="L481" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
     </row>
     <row r="482" spans="1:12">
@@ -42436,13 +42508,13 @@
         <v>2631</v>
       </c>
       <c r="F488" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G488" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H488" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I488" t="s">
         <v>43</v>
@@ -42512,13 +42584,13 @@
         <v>2640</v>
       </c>
       <c r="F490" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G490" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H490" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I490" t="s">
         <v>43</v>
@@ -42825,16 +42897,16 @@
         <v>2684</v>
       </c>
       <c r="I498" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="J498" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="K498" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="L498" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
     </row>
     <row r="499" spans="1:12">
@@ -42892,10 +42964,10 @@
         <v>2691</v>
       </c>
       <c r="F500" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G500" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H500" t="s">
         <v>2692</v>
@@ -43545,16 +43617,16 @@
         <v>2784</v>
       </c>
       <c r="I517" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="J517" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="K517" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="L517" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
     </row>
     <row r="518" spans="1:12">
@@ -43772,10 +43844,18 @@
       <c r="H523" t="s">
         <v>2816</v>
       </c>
-      <c r="I523" t="s"/>
-      <c r="J523" t="s"/>
-      <c r="K523" t="s"/>
-      <c r="L523" t="s"/>
+      <c r="I523" t="s">
+        <v>399</v>
+      </c>
+      <c r="J523" t="s">
+        <v>399</v>
+      </c>
+      <c r="K523" t="s">
+        <v>399</v>
+      </c>
+      <c r="L523" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="524" spans="1:12">
       <c r="A524" s="1" t="n">
@@ -43803,16 +43883,16 @@
         <v>2822</v>
       </c>
       <c r="I524" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J524" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K524" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L524" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="525" spans="1:12">
@@ -43870,13 +43950,13 @@
         <v>2831</v>
       </c>
       <c r="F526" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G526" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H526" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I526" t="s">
         <v>43</v>
@@ -44224,7 +44304,7 @@
         <v>43</v>
       </c>
       <c r="J535" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K535" t="s">
         <v>143</v>
@@ -44373,16 +44453,16 @@
         <v>2898</v>
       </c>
       <c r="I539" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="J539" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="K539" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="L539" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
     </row>
     <row r="540" spans="1:12">
@@ -44411,16 +44491,16 @@
         <v>2904</v>
       </c>
       <c r="I540" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J540" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K540" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L540" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="541" spans="1:12">
@@ -44563,16 +44643,16 @@
         <v>2924</v>
       </c>
       <c r="I544" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="J544" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="K544" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="L544" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
     </row>
     <row r="545" spans="1:12">
@@ -44676,10 +44756,18 @@
       <c r="H547" t="s">
         <v>2940</v>
       </c>
-      <c r="I547" t="s"/>
-      <c r="J547" t="s"/>
-      <c r="K547" t="s"/>
-      <c r="L547" t="s"/>
+      <c r="I547" t="s">
+        <v>399</v>
+      </c>
+      <c r="J547" t="s">
+        <v>399</v>
+      </c>
+      <c r="K547" t="s">
+        <v>399</v>
+      </c>
+      <c r="L547" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="548" spans="1:12">
       <c r="A548" s="1" t="n">
@@ -46180,13 +46268,13 @@
         <v>3155</v>
       </c>
       <c r="F587" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G587" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H587" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I587" t="s">
         <v>43</v>
@@ -46873,16 +46961,16 @@
         <v>3247</v>
       </c>
       <c r="I605" t="s">
-        <v>3248</v>
+        <v>108</v>
       </c>
       <c r="J605" t="s">
-        <v>481</v>
+        <v>17</v>
       </c>
       <c r="K605" t="s">
         <v>44</v>
       </c>
       <c r="L605" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="606" spans="1:12">
@@ -46893,22 +46981,22 @@
         <v>2529</v>
       </c>
       <c r="C606" t="s">
+        <v>3248</v>
+      </c>
+      <c r="D606" t="s">
         <v>3249</v>
       </c>
-      <c r="D606" t="s">
+      <c r="E606" t="s">
         <v>3250</v>
       </c>
-      <c r="E606" t="s">
+      <c r="F606" t="s">
         <v>3251</v>
       </c>
-      <c r="F606" t="s">
+      <c r="G606" t="s">
         <v>3252</v>
       </c>
-      <c r="G606" t="s">
+      <c r="H606" t="s">
         <v>3253</v>
-      </c>
-      <c r="H606" t="s">
-        <v>3254</v>
       </c>
       <c r="I606" t="s">
         <v>115</v>
@@ -46931,13 +47019,13 @@
         <v>2533</v>
       </c>
       <c r="C607" t="s">
+        <v>3254</v>
+      </c>
+      <c r="D607" t="s">
         <v>3255</v>
       </c>
-      <c r="D607" t="s">
+      <c r="E607" t="s">
         <v>3256</v>
-      </c>
-      <c r="E607" t="s">
-        <v>3257</v>
       </c>
       <c r="F607" t="s">
         <v>711</v>
@@ -46946,7 +47034,7 @@
         <v>712</v>
       </c>
       <c r="H607" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="I607" t="s">
         <v>43</v>
@@ -46969,22 +47057,22 @@
         <v>2536</v>
       </c>
       <c r="C608" t="s">
+        <v>3258</v>
+      </c>
+      <c r="D608" t="s">
         <v>3259</v>
       </c>
-      <c r="D608" t="s">
+      <c r="E608" t="s">
         <v>3260</v>
       </c>
-      <c r="E608" t="s">
+      <c r="F608" t="s">
         <v>3261</v>
       </c>
-      <c r="F608" t="s">
+      <c r="G608" t="s">
         <v>3262</v>
       </c>
-      <c r="G608" t="s">
+      <c r="H608" t="s">
         <v>3263</v>
-      </c>
-      <c r="H608" t="s">
-        <v>3264</v>
       </c>
       <c r="I608" t="s">
         <v>43</v>
@@ -47007,13 +47095,13 @@
         <v>2537</v>
       </c>
       <c r="C609" t="s">
+        <v>3264</v>
+      </c>
+      <c r="D609" t="s">
         <v>3265</v>
       </c>
-      <c r="D609" t="s">
+      <c r="E609" t="s">
         <v>3266</v>
-      </c>
-      <c r="E609" t="s">
-        <v>3267</v>
       </c>
       <c r="F609" t="s">
         <v>699</v>
@@ -47022,7 +47110,7 @@
         <v>700</v>
       </c>
       <c r="H609" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="I609" t="s">
         <v>108</v>
@@ -47045,22 +47133,22 @@
         <v>2538</v>
       </c>
       <c r="C610" t="s">
+        <v>3268</v>
+      </c>
+      <c r="D610" t="s">
         <v>3269</v>
       </c>
-      <c r="D610" t="s">
+      <c r="E610" t="s">
         <v>3270</v>
       </c>
-      <c r="E610" t="s">
+      <c r="F610" t="s">
         <v>3271</v>
       </c>
-      <c r="F610" t="s">
+      <c r="G610" t="s">
         <v>3272</v>
       </c>
-      <c r="G610" t="s">
+      <c r="H610" t="s">
         <v>3273</v>
-      </c>
-      <c r="H610" t="s">
-        <v>3274</v>
       </c>
       <c r="I610" t="s">
         <v>43</v>
@@ -47083,13 +47171,13 @@
         <v>2541</v>
       </c>
       <c r="C611" t="s">
+        <v>3274</v>
+      </c>
+      <c r="D611" t="s">
         <v>3275</v>
       </c>
-      <c r="D611" t="s">
+      <c r="E611" t="s">
         <v>3276</v>
-      </c>
-      <c r="E611" t="s">
-        <v>3277</v>
       </c>
       <c r="F611" t="s">
         <v>2529</v>
@@ -47098,7 +47186,7 @@
         <v>2530</v>
       </c>
       <c r="H611" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="I611" t="s">
         <v>43</v>
@@ -47121,13 +47209,13 @@
         <v>2548</v>
       </c>
       <c r="C612" t="s">
+        <v>3278</v>
+      </c>
+      <c r="D612" t="s">
         <v>3279</v>
       </c>
-      <c r="D612" t="s">
+      <c r="E612" t="s">
         <v>3280</v>
-      </c>
-      <c r="E612" t="s">
-        <v>3281</v>
       </c>
       <c r="F612" t="s">
         <v>1041</v>
@@ -47136,7 +47224,7 @@
         <v>1042</v>
       </c>
       <c r="H612" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="I612" t="s">
         <v>190</v>
@@ -47159,19 +47247,19 @@
         <v>2555</v>
       </c>
       <c r="C613" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D613" t="s">
         <v>3283</v>
       </c>
-      <c r="D613" t="s">
+      <c r="E613" t="s">
         <v>3284</v>
       </c>
-      <c r="E613" t="s">
+      <c r="F613" t="s">
         <v>3285</v>
       </c>
-      <c r="F613" t="s">
+      <c r="G613" t="s">
         <v>3286</v>
-      </c>
-      <c r="G613" t="s">
-        <v>3287</v>
       </c>
       <c r="H613" t="s"/>
       <c r="I613" t="s">
@@ -47195,28 +47283,28 @@
         <v>2558</v>
       </c>
       <c r="C614" t="s">
+        <v>3287</v>
+      </c>
+      <c r="D614" t="s">
         <v>3288</v>
       </c>
-      <c r="D614" t="s">
+      <c r="E614" t="s">
         <v>3289</v>
       </c>
-      <c r="E614" t="s">
-        <v>3290</v>
-      </c>
       <c r="F614" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G614" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H614" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I614" t="s">
         <v>43</v>
       </c>
       <c r="J614" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="K614" t="s">
         <v>44</v>
@@ -47233,13 +47321,13 @@
         <v>2569</v>
       </c>
       <c r="C615" t="s">
+        <v>3291</v>
+      </c>
+      <c r="D615" t="s">
         <v>3292</v>
       </c>
-      <c r="D615" t="s">
+      <c r="E615" t="s">
         <v>3293</v>
-      </c>
-      <c r="E615" t="s">
-        <v>3294</v>
       </c>
       <c r="F615" t="s">
         <v>988</v>
@@ -47248,7 +47336,7 @@
         <v>989</v>
       </c>
       <c r="H615" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="I615" t="s">
         <v>115</v>
@@ -47271,13 +47359,13 @@
         <v>2571</v>
       </c>
       <c r="C616" t="s">
+        <v>3295</v>
+      </c>
+      <c r="D616" t="s">
         <v>3296</v>
       </c>
-      <c r="D616" t="s">
+      <c r="E616" t="s">
         <v>3297</v>
-      </c>
-      <c r="E616" t="s">
-        <v>3298</v>
       </c>
       <c r="F616" t="s">
         <v>871</v>
@@ -47286,7 +47374,7 @@
         <v>872</v>
       </c>
       <c r="H616" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="I616" t="s">
         <v>115</v>
@@ -47309,22 +47397,22 @@
         <v>2577</v>
       </c>
       <c r="C617" t="s">
+        <v>3299</v>
+      </c>
+      <c r="D617" t="s">
         <v>3300</v>
       </c>
-      <c r="D617" t="s">
+      <c r="E617" t="s">
         <v>3301</v>
       </c>
-      <c r="E617" t="s">
+      <c r="F617" t="s">
         <v>3302</v>
       </c>
-      <c r="F617" t="s">
+      <c r="G617" t="s">
         <v>3303</v>
       </c>
-      <c r="G617" t="s">
+      <c r="H617" t="s">
         <v>3304</v>
-      </c>
-      <c r="H617" t="s">
-        <v>3305</v>
       </c>
       <c r="I617" t="s">
         <v>108</v>
@@ -47347,34 +47435,34 @@
         <v>2581</v>
       </c>
       <c r="C618" t="s">
+        <v>3305</v>
+      </c>
+      <c r="D618" t="s">
         <v>3306</v>
       </c>
-      <c r="D618" t="s">
+      <c r="E618" t="s">
         <v>3307</v>
       </c>
-      <c r="E618" t="s">
+      <c r="F618" t="s">
         <v>3308</v>
       </c>
-      <c r="F618" t="s">
+      <c r="G618" t="s">
         <v>3309</v>
       </c>
-      <c r="G618" t="s">
+      <c r="H618" t="s">
         <v>3310</v>
       </c>
-      <c r="H618" t="s">
-        <v>3311</v>
-      </c>
       <c r="I618" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J618" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K618" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L618" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="619" spans="1:12">
@@ -47385,13 +47473,13 @@
         <v>2582</v>
       </c>
       <c r="C619" t="s">
+        <v>3311</v>
+      </c>
+      <c r="D619" t="s">
         <v>3312</v>
       </c>
-      <c r="D619" t="s">
+      <c r="E619" t="s">
         <v>3313</v>
-      </c>
-      <c r="E619" t="s">
-        <v>3314</v>
       </c>
       <c r="F619" t="s">
         <v>871</v>
@@ -47400,7 +47488,7 @@
         <v>872</v>
       </c>
       <c r="H619" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="I619" t="s">
         <v>108</v>
@@ -47423,34 +47511,34 @@
         <v>2583</v>
       </c>
       <c r="C620" t="s">
+        <v>3315</v>
+      </c>
+      <c r="D620" t="s">
         <v>3316</v>
       </c>
-      <c r="D620" t="s">
+      <c r="E620" t="s">
         <v>3317</v>
       </c>
-      <c r="E620" t="s">
+      <c r="F620" t="s">
         <v>3318</v>
       </c>
-      <c r="F620" t="s">
+      <c r="G620" t="s">
         <v>3319</v>
       </c>
-      <c r="G620" t="s">
+      <c r="H620" t="s">
         <v>3320</v>
       </c>
-      <c r="H620" t="s">
-        <v>3321</v>
-      </c>
       <c r="I620" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="J620" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="K620" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="L620" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
     </row>
     <row r="621" spans="1:12">
@@ -47461,22 +47549,22 @@
         <v>2584</v>
       </c>
       <c r="C621" t="s">
+        <v>3321</v>
+      </c>
+      <c r="D621" t="s">
         <v>3322</v>
       </c>
-      <c r="D621" t="s">
+      <c r="E621" t="s">
         <v>3323</v>
       </c>
-      <c r="E621" t="s">
+      <c r="F621" t="s">
         <v>3324</v>
       </c>
-      <c r="F621" t="s">
+      <c r="G621" t="s">
         <v>3325</v>
       </c>
-      <c r="G621" t="s">
+      <c r="H621" t="s">
         <v>3326</v>
-      </c>
-      <c r="H621" t="s">
-        <v>3327</v>
       </c>
       <c r="I621" t="s">
         <v>108</v>
@@ -47499,13 +47587,13 @@
         <v>2592</v>
       </c>
       <c r="C622" t="s">
+        <v>3327</v>
+      </c>
+      <c r="D622" t="s">
         <v>3328</v>
       </c>
-      <c r="D622" t="s">
+      <c r="E622" t="s">
         <v>3329</v>
-      </c>
-      <c r="E622" t="s">
-        <v>3330</v>
       </c>
       <c r="F622" t="s">
         <v>2555</v>
@@ -47514,7 +47602,7 @@
         <v>2556</v>
       </c>
       <c r="H622" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="I622" t="s">
         <v>43</v>
@@ -47537,22 +47625,22 @@
         <v>2602</v>
       </c>
       <c r="C623" t="s">
+        <v>3331</v>
+      </c>
+      <c r="D623" t="s">
         <v>3332</v>
       </c>
-      <c r="D623" t="s">
+      <c r="E623" t="s">
         <v>3333</v>
       </c>
-      <c r="E623" t="s">
+      <c r="F623" t="s">
         <v>3334</v>
       </c>
-      <c r="F623" t="s">
+      <c r="G623" t="s">
         <v>3335</v>
       </c>
-      <c r="G623" t="s">
+      <c r="H623" t="s">
         <v>3336</v>
-      </c>
-      <c r="H623" t="s">
-        <v>3337</v>
       </c>
       <c r="I623" t="s">
         <v>108</v>
@@ -47575,13 +47663,13 @@
         <v>2603</v>
       </c>
       <c r="C624" t="s">
+        <v>3337</v>
+      </c>
+      <c r="D624" t="s">
         <v>3338</v>
       </c>
-      <c r="D624" t="s">
+      <c r="E624" t="s">
         <v>3339</v>
-      </c>
-      <c r="E624" t="s">
-        <v>3340</v>
       </c>
       <c r="F624" t="s">
         <v>771</v>
@@ -47613,13 +47701,13 @@
         <v>2605</v>
       </c>
       <c r="C625" t="s">
+        <v>3340</v>
+      </c>
+      <c r="D625" t="s">
         <v>3341</v>
       </c>
-      <c r="D625" t="s">
+      <c r="E625" t="s">
         <v>3342</v>
-      </c>
-      <c r="E625" t="s">
-        <v>3343</v>
       </c>
       <c r="F625" t="s">
         <v>1413</v>
@@ -47628,7 +47716,7 @@
         <v>1414</v>
       </c>
       <c r="H625" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="I625" t="s">
         <v>108</v>
@@ -47651,13 +47739,13 @@
         <v>2609</v>
       </c>
       <c r="C626" t="s">
+        <v>3344</v>
+      </c>
+      <c r="D626" t="s">
         <v>3345</v>
       </c>
-      <c r="D626" t="s">
+      <c r="E626" t="s">
         <v>3346</v>
-      </c>
-      <c r="E626" t="s">
-        <v>3347</v>
       </c>
       <c r="F626" t="s">
         <v>1142</v>
@@ -47666,7 +47754,7 @@
         <v>1143</v>
       </c>
       <c r="H626" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="I626" t="s">
         <v>115</v>
@@ -47678,7 +47766,7 @@
         <v>124</v>
       </c>
       <c r="L626" t="s">
-        <v>468</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="627" spans="1:12">
@@ -47736,10 +47824,10 @@
         <v>3357</v>
       </c>
       <c r="F628" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G628" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H628" t="s">
         <v>3358</v>
@@ -49300,10 +49388,18 @@
       <c r="H669" t="s">
         <v>3570</v>
       </c>
-      <c r="I669" t="s"/>
-      <c r="J669" t="s"/>
-      <c r="K669" t="s"/>
-      <c r="L669" t="s"/>
+      <c r="I669" t="s">
+        <v>399</v>
+      </c>
+      <c r="J669" t="s">
+        <v>399</v>
+      </c>
+      <c r="K669" t="s">
+        <v>399</v>
+      </c>
+      <c r="L669" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="670" spans="1:12">
       <c r="A670" s="1" t="n">
@@ -49708,7 +49804,7 @@
         <v>380</v>
       </c>
       <c r="H680" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="I680" t="s">
         <v>18</v>
@@ -50015,16 +50111,16 @@
         <v>3672</v>
       </c>
       <c r="I688" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J688" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K688" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L688" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="689" spans="1:12">
@@ -50234,10 +50330,10 @@
         <v>3702</v>
       </c>
       <c r="F694" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G694" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H694" t="s">
         <v>3703</v>
@@ -50319,16 +50415,16 @@
         <v>3715</v>
       </c>
       <c r="I696" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J696" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K696" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L696" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="697" spans="1:12">
@@ -50547,16 +50643,16 @@
         <v>3751</v>
       </c>
       <c r="I702" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J702" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K702" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L702" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="703" spans="1:12">
@@ -51117,16 +51213,16 @@
         <v>3835</v>
       </c>
       <c r="I717" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J717" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K717" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L717" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="718" spans="1:12">
@@ -51192,10 +51288,18 @@
       <c r="H719" t="s">
         <v>3845</v>
       </c>
-      <c r="I719" t="s"/>
-      <c r="J719" t="s"/>
-      <c r="K719" t="s"/>
-      <c r="L719" t="s"/>
+      <c r="I719" t="s">
+        <v>399</v>
+      </c>
+      <c r="J719" t="s">
+        <v>399</v>
+      </c>
+      <c r="K719" t="s">
+        <v>399</v>
+      </c>
+      <c r="L719" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="720" spans="1:12">
       <c r="A720" s="1" t="n">
@@ -51328,13 +51432,13 @@
         <v>3862</v>
       </c>
       <c r="F723" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G723" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H723" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I723" t="s">
         <v>43</v>
@@ -51404,13 +51508,13 @@
         <v>3869</v>
       </c>
       <c r="F725" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G725" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H725" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I725" t="s">
         <v>43</v>
@@ -51679,16 +51783,16 @@
         <v>3904</v>
       </c>
       <c r="I732" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J732" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K732" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L732" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="733" spans="1:12">
@@ -52363,16 +52467,16 @@
         <v>3996</v>
       </c>
       <c r="I750" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J750" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K750" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L750" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="751" spans="1:12">
@@ -52582,25 +52686,25 @@
         <v>4029</v>
       </c>
       <c r="F756" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G756" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H756" t="s">
         <v>4030</v>
       </c>
       <c r="I756" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J756" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K756" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L756" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="757" spans="1:12">
@@ -52819,16 +52923,16 @@
         <v>4062</v>
       </c>
       <c r="I762" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J762" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K762" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L762" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="763" spans="1:12">
@@ -54339,16 +54443,16 @@
         <v>4278</v>
       </c>
       <c r="I802" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="J802" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="K802" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="L802" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
     </row>
     <row r="803" spans="1:12">
@@ -54456,7 +54560,7 @@
         <v>43</v>
       </c>
       <c r="J805" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="K805" t="s">
         <v>17</v>
@@ -54491,16 +54595,16 @@
         <v>4300</v>
       </c>
       <c r="I806" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="J806" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="K806" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="L806" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
     </row>
     <row r="807" spans="1:12">
@@ -54718,10 +54822,18 @@
       <c r="H812" t="s">
         <v>4331</v>
       </c>
-      <c r="I812" t="s"/>
-      <c r="J812" t="s"/>
-      <c r="K812" t="s"/>
-      <c r="L812" t="s"/>
+      <c r="I812" t="s">
+        <v>399</v>
+      </c>
+      <c r="J812" t="s">
+        <v>399</v>
+      </c>
+      <c r="K812" t="s">
+        <v>399</v>
+      </c>
+      <c r="L812" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="813" spans="1:12">
       <c r="A813" s="1" t="n">
@@ -54980,7 +55092,7 @@
         <v>43</v>
       </c>
       <c r="J819" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K819" t="s">
         <v>44</v>
@@ -55206,7 +55318,7 @@
         <v>43</v>
       </c>
       <c r="J825" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K825" t="s">
         <v>44</v>
@@ -55346,13 +55458,13 @@
         <v>4412</v>
       </c>
       <c r="F829" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G829" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H829" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I829" t="s">
         <v>43</v>
@@ -55582,10 +55694,18 @@
       <c r="H835" t="s">
         <v>4442</v>
       </c>
-      <c r="I835" t="s"/>
-      <c r="J835" t="s"/>
-      <c r="K835" t="s"/>
-      <c r="L835" t="s"/>
+      <c r="I835" t="s">
+        <v>399</v>
+      </c>
+      <c r="J835" t="s">
+        <v>399</v>
+      </c>
+      <c r="K835" t="s">
+        <v>399</v>
+      </c>
+      <c r="L835" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="836" spans="1:12">
       <c r="A836" s="1" t="n">
@@ -55604,10 +55724,10 @@
         <v>4445</v>
       </c>
       <c r="F836" t="s">
+        <v>3271</v>
+      </c>
+      <c r="G836" t="s">
         <v>3272</v>
-      </c>
-      <c r="G836" t="s">
-        <v>3273</v>
       </c>
       <c r="H836" t="s">
         <v>4446</v>
@@ -56145,16 +56265,16 @@
         <v>4518</v>
       </c>
       <c r="I850" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="J850" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="K850" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="L850" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
     </row>
     <row r="851" spans="1:12">
@@ -56601,16 +56721,16 @@
         <v>4582</v>
       </c>
       <c r="I862" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J862" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K862" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L862" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="863" spans="1:12">
@@ -56753,16 +56873,16 @@
         <v>4604</v>
       </c>
       <c r="I866" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J866" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K866" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L866" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="867" spans="1:12">
@@ -56867,16 +56987,16 @@
         <v>4618</v>
       </c>
       <c r="I869" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="J869" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="K869" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="L869" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
     </row>
     <row r="870" spans="1:12">
@@ -57095,16 +57215,16 @@
         <v>4649</v>
       </c>
       <c r="I875" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J875" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K875" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L875" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="876" spans="1:12">
@@ -57162,13 +57282,13 @@
         <v>4658</v>
       </c>
       <c r="F877" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G877" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H877" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I877" t="s">
         <v>43</v>
@@ -57209,16 +57329,16 @@
         <v>4664</v>
       </c>
       <c r="I878" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="J878" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="K878" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="L878" t="s">
-        <v>629</v>
+        <v>469</v>
       </c>
     </row>
     <row r="879" spans="1:12">
@@ -57246,10 +57366,18 @@
       <c r="H879" t="s">
         <v>4670</v>
       </c>
-      <c r="I879" t="s"/>
-      <c r="J879" t="s"/>
-      <c r="K879" t="s"/>
-      <c r="L879" t="s"/>
+      <c r="I879" t="s">
+        <v>399</v>
+      </c>
+      <c r="J879" t="s">
+        <v>399</v>
+      </c>
+      <c r="K879" t="s">
+        <v>399</v>
+      </c>
+      <c r="L879" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="880" spans="1:12">
       <c r="A880" s="1" t="n">
@@ -57277,16 +57405,16 @@
         <v>4676</v>
       </c>
       <c r="I880" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J880" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K880" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L880" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="881" spans="1:12">
@@ -57314,10 +57442,18 @@
       <c r="H881" t="s">
         <v>4682</v>
       </c>
-      <c r="I881" t="s"/>
-      <c r="J881" t="s"/>
-      <c r="K881" t="s"/>
-      <c r="L881" t="s"/>
+      <c r="I881" t="s">
+        <v>399</v>
+      </c>
+      <c r="J881" t="s">
+        <v>399</v>
+      </c>
+      <c r="K881" t="s">
+        <v>399</v>
+      </c>
+      <c r="L881" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="882" spans="1:12">
       <c r="A882" s="1" t="n">
@@ -57953,7 +58089,7 @@
         <v>4778</v>
       </c>
       <c r="I898" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="J898" t="s">
         <v>18</v>
@@ -58218,10 +58354,18 @@
       <c r="H905" t="s">
         <v>4812</v>
       </c>
-      <c r="I905" t="s"/>
-      <c r="J905" t="s"/>
-      <c r="K905" t="s"/>
-      <c r="L905" t="s"/>
+      <c r="I905" t="s">
+        <v>399</v>
+      </c>
+      <c r="J905" t="s">
+        <v>399</v>
+      </c>
+      <c r="K905" t="s">
+        <v>399</v>
+      </c>
+      <c r="L905" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="906" spans="1:12">
       <c r="A906" s="1" t="n">
@@ -58442,7 +58586,7 @@
         <v>43</v>
       </c>
       <c r="J911" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K911" t="s">
         <v>44</v>
@@ -59007,16 +59151,16 @@
         <v>4921</v>
       </c>
       <c r="I926" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J926" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K926" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L926" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="927" spans="1:12">
@@ -59045,16 +59189,16 @@
         <v>4927</v>
       </c>
       <c r="I927" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J927" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K927" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L927" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="928" spans="1:12">
@@ -59080,7 +59224,7 @@
         <v>380</v>
       </c>
       <c r="H928" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="I928" t="s">
         <v>18</v>

--- a/readable_data.xlsx
+++ b/readable_data.xlsx
@@ -6320,9 +6320,6 @@
 © 2014 cygnet.  18+ only.  this product contains nicotine which is a highly addictive substance. blu™, blu ecigs®, and the blu logo are trademarks of lorillard technologies, inc., an affiliate of cygnet uk trading limited trading as blu uk.</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>Tilemahos Armed Eagle von Golden Greek (german)</t>
   </si>
   <si>
@@ -6426,6 +6423,9 @@
   </si>
   <si>
     <t>2002 le defi mark ten challenge from canada. commentary is french, sorry no english subtitles :(</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>BOX MODS VS PODS SYSTEMS WHICH ONE IS BETTER?? (EJUICE VS SALT NIXS)</t>
@@ -33593,7 +33593,7 @@
         <v>1370</v>
       </c>
       <c r="I253" t="s">
-        <v>1371</v>
+        <v>18</v>
       </c>
       <c r="J253" t="s">
         <v>18</v>
@@ -33613,22 +33613,22 @@
         <v>1003</v>
       </c>
       <c r="C254" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D254" t="s">
         <v>1372</v>
       </c>
-      <c r="D254" t="s">
+      <c r="E254" t="s">
         <v>1373</v>
       </c>
-      <c r="E254" t="s">
+      <c r="F254" t="s">
         <v>1374</v>
       </c>
-      <c r="F254" t="s">
+      <c r="G254" t="s">
         <v>1375</v>
       </c>
-      <c r="G254" t="s">
+      <c r="H254" t="s">
         <v>1376</v>
-      </c>
-      <c r="H254" t="s">
-        <v>1377</v>
       </c>
       <c r="I254" t="s">
         <v>399</v>
@@ -33651,22 +33651,22 @@
         <v>1006</v>
       </c>
       <c r="C255" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D255" t="s">
         <v>1378</v>
       </c>
-      <c r="D255" t="s">
+      <c r="E255" t="s">
         <v>1379</v>
       </c>
-      <c r="E255" t="s">
+      <c r="F255" t="s">
         <v>1380</v>
       </c>
-      <c r="F255" t="s">
+      <c r="G255" t="s">
         <v>1381</v>
       </c>
-      <c r="G255" t="s">
+      <c r="H255" t="s">
         <v>1382</v>
-      </c>
-      <c r="H255" t="s">
-        <v>1383</v>
       </c>
       <c r="I255" t="s">
         <v>115</v>
@@ -33689,13 +33689,13 @@
         <v>1008</v>
       </c>
       <c r="C256" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D256" t="s">
         <v>1384</v>
       </c>
-      <c r="D256" t="s">
+      <c r="E256" t="s">
         <v>1385</v>
-      </c>
-      <c r="E256" t="s">
-        <v>1386</v>
       </c>
       <c r="F256" t="s">
         <v>92</v>
@@ -33704,7 +33704,7 @@
         <v>93</v>
       </c>
       <c r="H256" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I256" t="s">
         <v>43</v>
@@ -33727,22 +33727,22 @@
         <v>1011</v>
       </c>
       <c r="C257" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D257" t="s">
         <v>1388</v>
       </c>
-      <c r="D257" t="s">
+      <c r="E257" t="s">
         <v>1389</v>
       </c>
-      <c r="E257" t="s">
+      <c r="F257" t="s">
         <v>1390</v>
       </c>
-      <c r="F257" t="s">
+      <c r="G257" t="s">
         <v>1391</v>
       </c>
-      <c r="G257" t="s">
+      <c r="H257" t="s">
         <v>1392</v>
-      </c>
-      <c r="H257" t="s">
-        <v>1393</v>
       </c>
       <c r="I257" t="s">
         <v>43</v>
@@ -33765,25 +33765,25 @@
         <v>1013</v>
       </c>
       <c r="C258" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D258" t="s">
         <v>1394</v>
       </c>
-      <c r="D258" t="s">
+      <c r="E258" t="s">
         <v>1395</v>
       </c>
-      <c r="E258" t="s">
+      <c r="F258" t="s">
         <v>1396</v>
       </c>
-      <c r="F258" t="s">
+      <c r="G258" t="s">
         <v>1397</v>
       </c>
-      <c r="G258" t="s">
+      <c r="H258" t="s">
         <v>1398</v>
       </c>
-      <c r="H258" t="s">
+      <c r="I258" t="s">
         <v>1399</v>
-      </c>
-      <c r="I258" t="s">
-        <v>1371</v>
       </c>
       <c r="J258" t="s">
         <v>18</v>
@@ -35907,7 +35907,7 @@
         <v>1680</v>
       </c>
       <c r="I314" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J314" t="s">
         <v>18</v>
@@ -35983,7 +35983,7 @@
         <v>1690</v>
       </c>
       <c r="I316" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J316" t="s">
         <v>18</v>
@@ -38603,7 +38603,7 @@
         <v>2052</v>
       </c>
       <c r="I385" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J385" t="s">
         <v>18</v>
@@ -38641,7 +38641,7 @@
         <v>2058</v>
       </c>
       <c r="I386" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J386" t="s">
         <v>18</v>
@@ -38679,7 +38679,7 @@
         <v>2064</v>
       </c>
       <c r="I387" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J387" t="s">
         <v>18</v>
@@ -38717,7 +38717,7 @@
         <v>2070</v>
       </c>
       <c r="I388" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J388" t="s">
         <v>18</v>
@@ -38793,7 +38793,7 @@
         <v>2082</v>
       </c>
       <c r="I390" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J390" t="s">
         <v>18</v>
@@ -38831,7 +38831,7 @@
         <v>2088</v>
       </c>
       <c r="I391" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J391" t="s">
         <v>18</v>
@@ -38869,7 +38869,7 @@
         <v>2094</v>
       </c>
       <c r="I392" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J392" t="s">
         <v>18</v>
@@ -38945,7 +38945,7 @@
         <v>2106</v>
       </c>
       <c r="I394" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J394" t="s">
         <v>18</v>
@@ -38983,7 +38983,7 @@
         <v>2112</v>
       </c>
       <c r="I395" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J395" t="s">
         <v>18</v>
@@ -39021,7 +39021,7 @@
         <v>2118</v>
       </c>
       <c r="I396" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J396" t="s">
         <v>18</v>
@@ -39059,7 +39059,7 @@
         <v>2124</v>
       </c>
       <c r="I397" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J397" t="s">
         <v>18</v>
@@ -39097,7 +39097,7 @@
         <v>2130</v>
       </c>
       <c r="I398" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J398" t="s">
         <v>18</v>
@@ -39173,7 +39173,7 @@
         <v>2142</v>
       </c>
       <c r="I400" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J400" t="s">
         <v>18</v>
@@ -39515,7 +39515,7 @@
         <v>2193</v>
       </c>
       <c r="I409" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J409" t="s">
         <v>18</v>
@@ -39553,7 +39553,7 @@
         <v>2199</v>
       </c>
       <c r="I410" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J410" t="s">
         <v>18</v>
@@ -39591,7 +39591,7 @@
         <v>2205</v>
       </c>
       <c r="I411" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J411" t="s">
         <v>18</v>
@@ -39629,7 +39629,7 @@
         <v>2211</v>
       </c>
       <c r="I412" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J412" t="s">
         <v>18</v>
@@ -39667,7 +39667,7 @@
         <v>2217</v>
       </c>
       <c r="I413" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J413" t="s">
         <v>18</v>
@@ -39705,7 +39705,7 @@
         <v>2223</v>
       </c>
       <c r="I414" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J414" t="s">
         <v>18</v>
@@ -39743,7 +39743,7 @@
         <v>2229</v>
       </c>
       <c r="I415" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J415" t="s">
         <v>18</v>
@@ -39781,7 +39781,7 @@
         <v>2235</v>
       </c>
       <c r="I416" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J416" t="s">
         <v>18</v>
@@ -39819,7 +39819,7 @@
         <v>2241</v>
       </c>
       <c r="I417" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J417" t="s">
         <v>18</v>
@@ -39857,7 +39857,7 @@
         <v>2247</v>
       </c>
       <c r="I418" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J418" t="s">
         <v>18</v>
@@ -39895,7 +39895,7 @@
         <v>2253</v>
       </c>
       <c r="I419" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J419" t="s">
         <v>18</v>
@@ -39933,7 +39933,7 @@
         <v>2259</v>
       </c>
       <c r="I420" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J420" t="s">
         <v>18</v>
@@ -39971,7 +39971,7 @@
         <v>2265</v>
       </c>
       <c r="I421" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J421" t="s">
         <v>18</v>
@@ -40009,7 +40009,7 @@
         <v>2271</v>
       </c>
       <c r="I422" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J422" t="s">
         <v>18</v>
@@ -40047,7 +40047,7 @@
         <v>2277</v>
       </c>
       <c r="I423" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J423" t="s">
         <v>18</v>
@@ -40085,7 +40085,7 @@
         <v>2283</v>
       </c>
       <c r="I424" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J424" t="s">
         <v>18</v>
@@ -40123,7 +40123,7 @@
         <v>2289</v>
       </c>
       <c r="I425" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J425" t="s">
         <v>18</v>
@@ -40161,7 +40161,7 @@
         <v>2295</v>
       </c>
       <c r="I426" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J426" t="s">
         <v>18</v>
@@ -40199,7 +40199,7 @@
         <v>2301</v>
       </c>
       <c r="I427" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J427" t="s">
         <v>18</v>
@@ -40237,7 +40237,7 @@
         <v>2307</v>
       </c>
       <c r="I428" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J428" t="s">
         <v>18</v>
@@ -40275,7 +40275,7 @@
         <v>2313</v>
       </c>
       <c r="I429" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J429" t="s">
         <v>18</v>
@@ -40313,7 +40313,7 @@
         <v>2319</v>
       </c>
       <c r="I430" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J430" t="s">
         <v>18</v>
@@ -40351,10 +40351,10 @@
         <v>2325</v>
       </c>
       <c r="I431" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J431" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="K431" t="s">
         <v>101</v>
@@ -40389,7 +40389,7 @@
         <v>2331</v>
       </c>
       <c r="I432" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J432" t="s">
         <v>18</v>
@@ -40427,7 +40427,7 @@
         <v>2337</v>
       </c>
       <c r="I433" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J433" t="s">
         <v>18</v>
@@ -40465,7 +40465,7 @@
         <v>2343</v>
       </c>
       <c r="I434" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J434" t="s">
         <v>18</v>
@@ -40503,7 +40503,7 @@
         <v>2349</v>
       </c>
       <c r="I435" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J435" t="s">
         <v>18</v>
@@ -40541,7 +40541,7 @@
         <v>2355</v>
       </c>
       <c r="I436" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J436" t="s">
         <v>18</v>
@@ -40579,7 +40579,7 @@
         <v>2361</v>
       </c>
       <c r="I437" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J437" t="s">
         <v>18</v>
@@ -40617,7 +40617,7 @@
         <v>2367</v>
       </c>
       <c r="I438" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J438" t="s">
         <v>18</v>
@@ -40655,7 +40655,7 @@
         <v>2373</v>
       </c>
       <c r="I439" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J439" t="s">
         <v>18</v>
@@ -40693,7 +40693,7 @@
         <v>2379</v>
       </c>
       <c r="I440" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J440" t="s">
         <v>18</v>
@@ -40731,7 +40731,7 @@
         <v>2385</v>
       </c>
       <c r="I441" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J441" t="s">
         <v>18</v>
@@ -40769,7 +40769,7 @@
         <v>2391</v>
       </c>
       <c r="I442" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J442" t="s">
         <v>18</v>
@@ -40807,7 +40807,7 @@
         <v>2395</v>
       </c>
       <c r="I443" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J443" t="s">
         <v>18</v>
@@ -40845,7 +40845,7 @@
         <v>2401</v>
       </c>
       <c r="I444" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J444" t="s">
         <v>18</v>
@@ -42365,7 +42365,7 @@
         <v>2614</v>
       </c>
       <c r="I484" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J484" t="s">
         <v>18</v>
@@ -43353,7 +43353,7 @@
         <v>2750</v>
       </c>
       <c r="I510" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J510" t="s">
         <v>18</v>
@@ -43391,7 +43391,7 @@
         <v>2756</v>
       </c>
       <c r="I511" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J511" t="s">
         <v>18</v>
@@ -43655,7 +43655,7 @@
         <v>2790</v>
       </c>
       <c r="I518" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J518" t="s">
         <v>18</v>
@@ -43693,7 +43693,7 @@
         <v>2794</v>
       </c>
       <c r="I519" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J519" t="s">
         <v>18</v>
@@ -44111,7 +44111,7 @@
         <v>2852</v>
       </c>
       <c r="I530" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J530" t="s">
         <v>18</v>
@@ -44149,7 +44149,7 @@
         <v>2858</v>
       </c>
       <c r="I531" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J531" t="s">
         <v>18</v>
@@ -44187,7 +44187,7 @@
         <v>2864</v>
       </c>
       <c r="I532" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J532" t="s">
         <v>18</v>
@@ -44225,7 +44225,7 @@
         <v>2870</v>
       </c>
       <c r="I533" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J533" t="s">
         <v>18</v>
@@ -44947,7 +44947,7 @@
         <v>2964</v>
       </c>
       <c r="I552" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J552" t="s">
         <v>18</v>
@@ -45023,7 +45023,7 @@
         <v>2976</v>
       </c>
       <c r="I554" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J554" t="s">
         <v>18</v>
@@ -45061,7 +45061,7 @@
         <v>2982</v>
       </c>
       <c r="I555" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J555" t="s">
         <v>18</v>
@@ -45099,7 +45099,7 @@
         <v>2988</v>
       </c>
       <c r="I556" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J556" t="s">
         <v>18</v>
@@ -45137,7 +45137,7 @@
         <v>2994</v>
       </c>
       <c r="I557" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J557" t="s">
         <v>18</v>
@@ -45175,7 +45175,7 @@
         <v>3000</v>
       </c>
       <c r="I558" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J558" t="s">
         <v>18</v>
@@ -45213,7 +45213,7 @@
         <v>3006</v>
       </c>
       <c r="I559" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J559" t="s">
         <v>18</v>
@@ -49579,7 +49579,7 @@
         <v>3599</v>
       </c>
       <c r="I674" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J674" t="s">
         <v>18</v>
@@ -49617,7 +49617,7 @@
         <v>3605</v>
       </c>
       <c r="I675" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J675" t="s">
         <v>18</v>
@@ -49655,7 +49655,7 @@
         <v>3611</v>
       </c>
       <c r="I676" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J676" t="s">
         <v>18</v>
@@ -49693,7 +49693,7 @@
         <v>3617</v>
       </c>
       <c r="I677" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J677" t="s">
         <v>18</v>
@@ -49731,7 +49731,7 @@
         <v>3623</v>
       </c>
       <c r="I678" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J678" t="s">
         <v>18</v>
@@ -50947,7 +50947,7 @@
         <v>3799</v>
       </c>
       <c r="I710" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J710" t="s">
         <v>18</v>
@@ -52163,7 +52163,7 @@
         <v>3953</v>
       </c>
       <c r="I742" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J742" t="s">
         <v>18</v>
@@ -52277,7 +52277,7 @@
         <v>3969</v>
       </c>
       <c r="I745" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J745" t="s">
         <v>18</v>
@@ -52543,7 +52543,7 @@
         <v>4008</v>
       </c>
       <c r="I752" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J752" t="s">
         <v>18</v>
@@ -52581,7 +52581,7 @@
         <v>4014</v>
       </c>
       <c r="I753" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J753" t="s">
         <v>18</v>
@@ -53455,7 +53455,7 @@
         <v>4138</v>
       </c>
       <c r="I776" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J776" t="s">
         <v>18</v>
@@ -53493,7 +53493,7 @@
         <v>4144</v>
       </c>
       <c r="I777" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J777" t="s">
         <v>18</v>
@@ -53531,7 +53531,7 @@
         <v>4150</v>
       </c>
       <c r="I778" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J778" t="s">
         <v>18</v>
@@ -53569,7 +53569,7 @@
         <v>4156</v>
       </c>
       <c r="I779" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J779" t="s">
         <v>18</v>
@@ -53797,7 +53797,7 @@
         <v>4182</v>
       </c>
       <c r="I785" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J785" t="s">
         <v>18</v>
@@ -53835,7 +53835,7 @@
         <v>4188</v>
       </c>
       <c r="I786" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J786" t="s">
         <v>18</v>
@@ -53873,7 +53873,7 @@
         <v>4194</v>
       </c>
       <c r="I787" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J787" t="s">
         <v>18</v>
@@ -53911,7 +53911,7 @@
         <v>4200</v>
       </c>
       <c r="I788" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J788" t="s">
         <v>18</v>
@@ -53949,7 +53949,7 @@
         <v>4206</v>
       </c>
       <c r="I789" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J789" t="s">
         <v>18</v>
@@ -53987,7 +53987,7 @@
         <v>4212</v>
       </c>
       <c r="I790" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J790" t="s">
         <v>18</v>
@@ -54025,7 +54025,7 @@
         <v>4218</v>
       </c>
       <c r="I791" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J791" t="s">
         <v>18</v>
@@ -54063,7 +54063,7 @@
         <v>4224</v>
       </c>
       <c r="I792" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J792" t="s">
         <v>18</v>
@@ -54101,7 +54101,7 @@
         <v>4230</v>
       </c>
       <c r="I793" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J793" t="s">
         <v>18</v>
@@ -54139,7 +54139,7 @@
         <v>4236</v>
       </c>
       <c r="I794" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J794" t="s">
         <v>18</v>
@@ -54177,7 +54177,7 @@
         <v>4242</v>
       </c>
       <c r="I795" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J795" t="s">
         <v>18</v>
@@ -54215,7 +54215,7 @@
         <v>4248</v>
       </c>
       <c r="I796" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J796" t="s">
         <v>18</v>
@@ -55505,7 +55505,7 @@
         <v>4418</v>
       </c>
       <c r="I830" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J830" t="s">
         <v>18</v>
@@ -55809,7 +55809,7 @@
         <v>4454</v>
       </c>
       <c r="I838" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J838" t="s">
         <v>18</v>
@@ -56075,7 +56075,7 @@
         <v>4490</v>
       </c>
       <c r="I845" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J845" t="s">
         <v>18</v>
@@ -56151,7 +56151,7 @@
         <v>4502</v>
       </c>
       <c r="I847" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J847" t="s">
         <v>18</v>
@@ -56227,7 +56227,7 @@
         <v>4512</v>
       </c>
       <c r="I849" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J849" t="s">
         <v>18</v>
@@ -56303,7 +56303,7 @@
         <v>4524</v>
       </c>
       <c r="I851" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J851" t="s">
         <v>18</v>
@@ -56341,7 +56341,7 @@
         <v>4530</v>
       </c>
       <c r="I852" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J852" t="s">
         <v>18</v>
@@ -56379,7 +56379,7 @@
         <v>4536</v>
       </c>
       <c r="I853" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J853" t="s">
         <v>18</v>
@@ -56455,7 +56455,7 @@
         <v>4546</v>
       </c>
       <c r="I855" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J855" t="s">
         <v>18</v>
@@ -56607,7 +56607,7 @@
         <v>4566</v>
       </c>
       <c r="I859" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J859" t="s">
         <v>18</v>
@@ -56759,7 +56759,7 @@
         <v>4588</v>
       </c>
       <c r="I863" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J863" t="s">
         <v>18</v>
@@ -56835,7 +56835,7 @@
         <v>4598</v>
       </c>
       <c r="I865" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J865" t="s">
         <v>18</v>
@@ -57557,7 +57557,7 @@
         <v>4698</v>
       </c>
       <c r="I884" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J884" t="s">
         <v>18</v>
@@ -57595,7 +57595,7 @@
         <v>4704</v>
       </c>
       <c r="I885" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J885" t="s">
         <v>18</v>
@@ -57633,7 +57633,7 @@
         <v>4710</v>
       </c>
       <c r="I886" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J886" t="s">
         <v>18</v>
@@ -57671,7 +57671,7 @@
         <v>4716</v>
       </c>
       <c r="I887" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J887" t="s">
         <v>18</v>
@@ -58241,7 +58241,7 @@
         <v>4796</v>
       </c>
       <c r="I902" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J902" t="s">
         <v>18</v>
@@ -59341,7 +59341,7 @@
         <v>4946</v>
       </c>
       <c r="I931" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J931" t="s">
         <v>18</v>
@@ -59379,7 +59379,7 @@
         <v>4952</v>
       </c>
       <c r="I932" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J932" t="s">
         <v>18</v>
@@ -59417,7 +59417,7 @@
         <v>4958</v>
       </c>
       <c r="I933" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J933" t="s">
         <v>18</v>
@@ -59455,7 +59455,7 @@
         <v>4964</v>
       </c>
       <c r="I934" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J934" t="s">
         <v>18</v>
@@ -59493,7 +59493,7 @@
         <v>4970</v>
       </c>
       <c r="I935" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="J935" t="s">
         <v>18</v>
